--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/IntegratedEnergyResourcePlanning-2024_2025_winter/Shared Documents/2024_2025_winter/Lab/2023.12.06 - Very Simple Times Model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wyrwaa\Desktop\SES\VEDA_MODEL\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{211A4542-72C8-49B5-A803-BC7CE3750A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{974363EB-5C15-4195-B1A5-04C140721549}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7735D12-3E1D-44D3-BFE7-D7678DDD9376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -28,6 +28,9 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -823,6 +826,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
   <si>
+    <t>Define commodities</t>
+  </si>
+  <si>
+    <t>Remember to Leave 1 Row/Column empty around each Veda Table</t>
+  </si>
+  <si>
     <t>~FI_Comm</t>
   </si>
   <si>
@@ -850,9 +859,84 @@
     <t>Ctype</t>
   </si>
   <si>
+    <t>\I: Commodity Set</t>
+  </si>
+  <si>
+    <t>Commodity Name</t>
+  </si>
+  <si>
+    <t>Commodity Description</t>
+  </si>
+  <si>
+    <t>Sense of Balance Equation</t>
+  </si>
+  <si>
+    <t>Timeslice Level</t>
+  </si>
+  <si>
+    <t>Peak Monitoring</t>
+  </si>
+  <si>
+    <t>Electricity Indicator (CHP)</t>
+  </si>
+  <si>
     <t>NRG</t>
   </si>
   <si>
+    <t>BROWN_COAL</t>
+  </si>
+  <si>
+    <t>Brown Coal</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>SEASON</t>
+  </si>
+  <si>
+    <t>DEM</t>
+  </si>
+  <si>
+    <t>ELEC_HV</t>
+  </si>
+  <si>
+    <t>High Voltage Electricity</t>
+  </si>
+  <si>
+    <t>DAYNITE</t>
+  </si>
+  <si>
+    <t>Available Commodity Sets</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>ENV</t>
+  </si>
+  <si>
+    <t>Emission</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>MAT</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>Financial</t>
+  </si>
+  <si>
+    <t>Define processes</t>
+  </si>
+  <si>
     <t>~FI_Process</t>
   </si>
   <si>
@@ -883,15 +967,120 @@
     <t>Vintage</t>
   </si>
   <si>
+    <t>\I: Process Set</t>
+  </si>
+  <si>
+    <t>Region Name</t>
+  </si>
+  <si>
+    <t>Technology Name</t>
+  </si>
+  <si>
+    <t>Technology Description</t>
+  </si>
+  <si>
+    <t>Activity Unit</t>
+  </si>
+  <si>
+    <t>Capacity Unit</t>
+  </si>
+  <si>
+    <t>Primary Commodity Froup</t>
+  </si>
+  <si>
+    <t>Vintage Tracking</t>
+  </si>
+  <si>
+    <t>ELE</t>
+  </si>
+  <si>
+    <t>ELE_EX_BELCHATOW</t>
+  </si>
+  <si>
+    <t>Belchatow Power Plant</t>
+  </si>
+  <si>
+    <t>GWe</t>
+  </si>
+  <si>
     <t>MIN</t>
   </si>
   <si>
+    <t>MIN_EX_BROWN_COAL</t>
+  </si>
+  <si>
+    <t>Brown Coal Mine</t>
+  </si>
+  <si>
+    <t>Pja</t>
+  </si>
+  <si>
+    <t>Power Plant (Electricity Only)</t>
+  </si>
+  <si>
+    <t>CHP</t>
+  </si>
+  <si>
+    <t>Combined Heat &amp; Power Plant</t>
+  </si>
+  <si>
+    <t>STG</t>
+  </si>
+  <si>
+    <t>Timeslice Storage</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>Generic Process</t>
+  </si>
+  <si>
+    <t>DMD</t>
+  </si>
+  <si>
+    <t>Demand Process</t>
+  </si>
+  <si>
+    <t>Should have commodity of type DEM as an output</t>
+  </si>
+  <si>
     <t>IMP</t>
   </si>
   <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>Commodity only at Output</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>Eksport</t>
+  </si>
+  <si>
+    <t>Commodity only at Input</t>
+  </si>
+  <si>
+    <t>Mining</t>
+  </si>
+  <si>
+    <t>HPL</t>
+  </si>
+  <si>
+    <t>Heat Only Plant</t>
+  </si>
+  <si>
+    <t>Primary energy supply</t>
+  </si>
+  <si>
     <t>~FI_T</t>
   </si>
   <si>
+    <t>*TechDesc</t>
+  </si>
+  <si>
     <t>Comm-OUT</t>
   </si>
   <si>
@@ -901,307 +1090,121 @@
     <t>ACT_BND</t>
   </si>
   <si>
-    <t>Primary energy supply</t>
-  </si>
-  <si>
-    <t>ENV</t>
-  </si>
-  <si>
-    <t>DEM</t>
-  </si>
-  <si>
-    <t>MAT</t>
-  </si>
-  <si>
-    <t>FIN</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>Emission</t>
-  </si>
-  <si>
-    <t>Demand</t>
-  </si>
-  <si>
-    <t>Material</t>
-  </si>
-  <si>
-    <t>Financial</t>
-  </si>
-  <si>
-    <t>\I: Commodity Set</t>
-  </si>
-  <si>
-    <t>Commodity Name</t>
-  </si>
-  <si>
-    <t>Commodity Description</t>
-  </si>
-  <si>
-    <t>Sense of Balance Equation</t>
-  </si>
-  <si>
-    <t>Timeslice Level</t>
-  </si>
-  <si>
-    <t>Peak Monitoring</t>
-  </si>
-  <si>
-    <t>Electricity Indicator (CHP)</t>
-  </si>
-  <si>
-    <t>Define processes</t>
-  </si>
-  <si>
-    <t>Define commodities</t>
-  </si>
-  <si>
-    <t>ELE</t>
-  </si>
-  <si>
-    <t>CHP</t>
-  </si>
-  <si>
-    <t>STG</t>
-  </si>
-  <si>
-    <t>PRE</t>
-  </si>
-  <si>
-    <t>DMD</t>
-  </si>
-  <si>
-    <t>EXP</t>
-  </si>
-  <si>
-    <t>HPL</t>
-  </si>
-  <si>
-    <t>\I: Process Set</t>
-  </si>
-  <si>
-    <t>Region Name</t>
-  </si>
-  <si>
-    <t>Technology Name</t>
-  </si>
-  <si>
-    <t>Technology Description</t>
-  </si>
-  <si>
-    <t>Activity Unit</t>
-  </si>
-  <si>
-    <t>Capacity Unit</t>
-  </si>
-  <si>
-    <t>Primary Commodity Froup</t>
-  </si>
-  <si>
-    <t>Vintage Tracking</t>
-  </si>
-  <si>
-    <t>Power Plant (Electricity Only)</t>
-  </si>
-  <si>
-    <t>Combined Heat &amp; Power Plant</t>
-  </si>
-  <si>
-    <t>Timeslice Storage</t>
-  </si>
-  <si>
-    <t>Generic Process</t>
-  </si>
-  <si>
-    <t>Demand Process</t>
-  </si>
-  <si>
-    <t>Import</t>
-  </si>
-  <si>
-    <t>Eksport</t>
-  </si>
-  <si>
-    <t>Mining</t>
-  </si>
-  <si>
-    <t>Heat Only Plant</t>
-  </si>
-  <si>
-    <t>Commodity only at Output</t>
-  </si>
-  <si>
-    <t>Commodity only at Input</t>
-  </si>
-  <si>
     <t>\I: Technology Name</t>
   </si>
   <si>
     <t>Output Commodity</t>
   </si>
   <si>
+    <t>Extraction or Import cost</t>
+  </si>
+  <si>
     <t>Annual Activity Bound</t>
   </si>
   <si>
+    <t>\I: Unit</t>
+  </si>
+  <si>
+    <t>PLN/PJ</t>
+  </si>
+  <si>
+    <t>PJ/a</t>
+  </si>
+  <si>
+    <t>Power Plants - Energy Transformation</t>
+  </si>
+  <si>
+    <t>Comm-IN</t>
+  </si>
+  <si>
+    <t>STOCK</t>
+  </si>
+  <si>
+    <t>EFF</t>
+  </si>
+  <si>
+    <t>CAP2ACT</t>
+  </si>
+  <si>
+    <t>AFA</t>
+  </si>
+  <si>
+    <t>FIXOM</t>
+  </si>
+  <si>
+    <t>VAROM</t>
+  </si>
+  <si>
+    <t>Input Commodity</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Efficiency (output based)</t>
+  </si>
+  <si>
+    <t>Capacity to Activity Factor</t>
+  </si>
+  <si>
+    <t>Annual Availibility Factor</t>
+  </si>
+  <si>
+    <t>Fix Costs O&amp;M</t>
+  </si>
+  <si>
+    <t>Variable Cost O&amp;M</t>
+  </si>
+  <si>
+    <t>PJ output / PJ input</t>
+  </si>
+  <si>
+    <t>PJ / a / GWe</t>
+  </si>
+  <si>
+    <t>hours / 8760 hours</t>
+  </si>
+  <si>
+    <t>PLN / kWe</t>
+  </si>
+  <si>
+    <t>PLN / GJ Activity</t>
+  </si>
+  <si>
+    <t>Demand Technology</t>
+  </si>
+  <si>
+    <t>Final Energy Consumption</t>
+  </si>
+  <si>
+    <t>~FI_T:DEMAND</t>
+  </si>
+  <si>
+    <t>\I: Demand Commodity Name</t>
+  </si>
+  <si>
+    <t>Demand [PJ]</t>
+  </si>
+  <si>
+    <t>Technology Specific Fuel Emission Factors</t>
+  </si>
+  <si>
     <t>~PRCCOMEMI</t>
   </si>
   <si>
+    <t>&lt;- Fuel</t>
+  </si>
+  <si>
+    <t>Fuel2</t>
+  </si>
+  <si>
+    <t>Fuel3 …</t>
+  </si>
+  <si>
     <t>Emission Commodity Name</t>
   </si>
   <si>
-    <t>&lt;- Fuel</t>
-  </si>
-  <si>
-    <t>Fuel2</t>
-  </si>
-  <si>
-    <t>Fuel3 …</t>
-  </si>
-  <si>
-    <t>Technology Specific Fuel Emission Factors</t>
-  </si>
-  <si>
     <t>Emission Factor</t>
-  </si>
-  <si>
-    <t>*TechDesc</t>
-  </si>
-  <si>
-    <t>Comm-IN</t>
-  </si>
-  <si>
-    <t>EFF</t>
-  </si>
-  <si>
-    <t>CAP2ACT</t>
-  </si>
-  <si>
-    <t>STOCK</t>
-  </si>
-  <si>
-    <t>AFA</t>
-  </si>
-  <si>
-    <t>FIXOM</t>
-  </si>
-  <si>
-    <t>VAROM</t>
-  </si>
-  <si>
-    <t>Input Commodity</t>
-  </si>
-  <si>
-    <t>Capacity</t>
-  </si>
-  <si>
-    <t>Efficiency (output based)</t>
-  </si>
-  <si>
-    <t>Capacity to Activity Factor</t>
-  </si>
-  <si>
-    <t>Annual Availibility Factor</t>
-  </si>
-  <si>
-    <t>Fix Costs O&amp;M</t>
-  </si>
-  <si>
-    <t>Variable Cost O&amp;M</t>
-  </si>
-  <si>
-    <t>Power Plants - Energy Transformation</t>
-  </si>
-  <si>
-    <t>~FI_T:DEMAND</t>
-  </si>
-  <si>
-    <t>\I: Demand Commodity Name</t>
-  </si>
-  <si>
-    <t>Final Energy Consumption</t>
-  </si>
-  <si>
-    <t>Demand Technology</t>
-  </si>
-  <si>
-    <t>Available Commodity Sets</t>
-  </si>
-  <si>
-    <t>Remember to Leave 1 Row/Column empty around each Veda Table</t>
-  </si>
-  <si>
-    <t>PJ</t>
-  </si>
-  <si>
-    <t>SEASON</t>
-  </si>
-  <si>
-    <t>DAYNITE</t>
-  </si>
-  <si>
-    <t>BROWN_COAL</t>
-  </si>
-  <si>
-    <t>GWe</t>
-  </si>
-  <si>
-    <t>Demand [PJ]</t>
-  </si>
-  <si>
-    <t>Pja</t>
-  </si>
-  <si>
-    <t>Should have commodity of type DEM as an output</t>
-  </si>
-  <si>
-    <t>\I: Unit</t>
-  </si>
-  <si>
-    <t>PLN/PJ</t>
-  </si>
-  <si>
-    <t>PJ/a</t>
-  </si>
-  <si>
-    <t>Extraction or Import cost</t>
-  </si>
-  <si>
-    <t>ELE_EX_BELCHATOW</t>
-  </si>
-  <si>
-    <t>Belchatow Power Plant</t>
-  </si>
-  <si>
-    <t>MIN_EX_BROWN_COAL</t>
-  </si>
-  <si>
-    <t>Brown Coal Mine</t>
-  </si>
-  <si>
-    <t>ELEC_HV</t>
-  </si>
-  <si>
-    <t>Brown Coal</t>
-  </si>
-  <si>
-    <t>High Voltage Electricity</t>
-  </si>
-  <si>
-    <t>PJ output / PJ input</t>
-  </si>
-  <si>
-    <t>PJ / a / GWe</t>
-  </si>
-  <si>
-    <t>hours / 8760 hours</t>
-  </si>
-  <si>
-    <t>PLN / kWe</t>
-  </si>
-  <si>
-    <t>PLN / GJ Activity</t>
   </si>
 </sst>
 </file>
@@ -2437,12 +2440,8 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="277"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="277" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="277" applyFont="1" applyAlignment="1">
@@ -2500,7 +2499,6 @@
     <xf numFmtId="2" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2510,42 +2508,18 @@
     <xf numFmtId="0" fontId="52" fillId="28" borderId="10" xfId="277" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="25" borderId="13" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="3" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="25" borderId="12" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="278" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2588,27 +2562,6 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="28" borderId="16" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2621,69 +2574,215 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="17" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="28" borderId="18" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="28" borderId="18" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="27" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="12" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="278" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="339" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2969,7 +3068,6 @@
     <cellStyle name="Neutralne 6" xfId="271" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
     <cellStyle name="Neutralne 7" xfId="272" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
     <cellStyle name="Neutralne 8" xfId="273" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="274" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
     <cellStyle name="Normal 2" xfId="275" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
     <cellStyle name="Normal 3" xfId="276" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
@@ -2977,6 +3075,7 @@
     <cellStyle name="Normal_MIN" xfId="277" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
     <cellStyle name="Normal_PRC" xfId="278" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
     <cellStyle name="Normale_B2020" xfId="279" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 2" xfId="280" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
     <cellStyle name="Normalny 3" xfId="281" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
     <cellStyle name="Normalny 4" xfId="282" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
@@ -3535,267 +3634,268 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.81640625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" style="58" customWidth="1"/>
+    <col min="4" max="4" width="32.81640625" style="58" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="58" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" style="58" customWidth="1"/>
+    <col min="7" max="8" width="12.81640625" style="58" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" style="58" customWidth="1"/>
+    <col min="10" max="10" width="3" style="58" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" style="58" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" style="58" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="58"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="18.75" thickBot="1">
-      <c r="B2" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+    <row r="2" spans="1:11" ht="17.5">
+      <c r="B2" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="100"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="117" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="17.45" customHeight="1">
-      <c r="A4" s="104"/>
-      <c r="B4" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="117"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="123" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="17.5" customHeight="1">
+      <c r="A4" s="66"/>
+      <c r="B4" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="123"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="104"/>
-      <c r="B5" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="33" t="s">
+      <c r="A5" s="66"/>
+      <c r="B5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="C5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="D5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="E5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="F5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="G5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="106"/>
-      <c r="K5" s="117"/>
-    </row>
-    <row r="6" spans="1:11" ht="31.7" customHeight="1" thickBot="1">
-      <c r="A6" s="104"/>
-      <c r="B6" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="106"/>
-      <c r="K6" s="117"/>
+      <c r="H5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="69"/>
+      <c r="K5" s="123"/>
+    </row>
+    <row r="6" spans="1:11" ht="31.75" customHeight="1" thickBot="1">
+      <c r="A6" s="66"/>
+      <c r="B6" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="69"/>
+      <c r="K6" s="123"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A7" s="104"/>
-      <c r="B7" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="110" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="117"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="73"/>
+      <c r="G7" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="123"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A8" s="104"/>
-      <c r="B8" s="39" t="s">
+      <c r="A8" s="66"/>
+      <c r="B8" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="77"/>
+      <c r="G8" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="123"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A9" s="66"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="123"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A10" s="66"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="123"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A11" s="66"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="123"/>
+    </row>
+    <row r="12" spans="1:11" ht="13" thickBot="1">
+      <c r="A12" s="84"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="123"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B15" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="122"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+      <c r="B16" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="111" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="117"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A9" s="104"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="117"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A10" s="104"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="117"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="104"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="117"/>
-    </row>
-    <row r="12" spans="1:11" ht="13.5" thickBot="1">
-      <c r="A12" s="107"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="117"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B15" s="116" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="116"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B16" s="96" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="96" t="s">
+    </row>
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B17" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B18" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="89" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B17" s="97" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="97" t="s">
+    <row r="19" spans="2:3">
+      <c r="B19" s="88" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B18" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="98" t="s">
+      <c r="C19" s="88" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="97" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="97" t="s">
+    <row r="20" spans="2:3">
+      <c r="B20" s="90" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" ht="13.5" thickBot="1">
-      <c r="B20" s="99" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="99" t="s">
+      <c r="C20" s="90" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3817,274 +3917,275 @@
   <dimension ref="A2:J24"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
-    <col min="6" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="1" max="1" width="2.81640625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" style="58" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" style="58" customWidth="1"/>
+    <col min="4" max="4" width="25" style="58" customWidth="1"/>
+    <col min="5" max="5" width="28.54296875" style="58" customWidth="1"/>
+    <col min="6" max="7" width="10" style="58" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" style="58" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" style="58" customWidth="1"/>
+    <col min="10" max="10" width="10" style="58" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="58"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
     </row>
     <row r="3" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B4" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
+      <c r="B4" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B5" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="48" t="s">
+      <c r="B5" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="47.25" customHeight="1">
+      <c r="B6" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="47.25" customHeight="1" thickBot="1">
-      <c r="B6" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="49" t="s">
+      <c r="I6" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="J6" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="49" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B7" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="C7" s="71"/>
+      <c r="D7" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="E7" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="49" t="s">
+      <c r="F7" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="49" t="s">
+      <c r="H7" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B8" s="74" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B7" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="110" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B8" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="111" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B12" s="94"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="B16" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>60</v>
+      <c r="B16" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="98" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>61</v>
+      <c r="B17" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="98" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>62</v>
+      <c r="B18" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="98" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>63</v>
+      <c r="B19" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="98" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="54" t="s">
-        <v>110</v>
+      <c r="B20" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="98" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="98" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="54" t="s">
-        <v>69</v>
+      <c r="B21" s="98" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="98" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="98" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="54" t="s">
-        <v>70</v>
+      <c r="B22" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="98" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="54" t="s">
-        <v>69</v>
+      <c r="B23" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="98" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>68</v>
+      <c r="B24" s="98" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="98" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4100,238 +4201,238 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="8" max="10" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.81640625" customWidth="1"/>
+    <col min="2" max="2" width="27.7265625" customWidth="1"/>
+    <col min="3" max="3" width="27.1796875" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="8" max="10" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-    </row>
-    <row r="2" spans="1:20" ht="18">
-      <c r="A2" s="5"/>
-      <c r="B2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
+      <c r="A1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" ht="17.5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="D4" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
+      <c r="A4" s="1"/>
+      <c r="D4" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-    </row>
-    <row r="6" spans="1:20" ht="26.25" thickBot="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-    </row>
-    <row r="7" spans="1:20" ht="13.5" thickBot="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="112" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="112" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" ht="25.5" thickBot="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" ht="13" thickBot="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B8" s="15" t="str">
+      <c r="B8" s="11" t="str">
         <f>SEC_Processes!D8</f>
         <v>MIN_EX_BROWN_COAL</v>
       </c>
-      <c r="C8" s="15" t="str">
+      <c r="C8" s="11" t="str">
         <f>SEC_Processes!E8</f>
         <v>Brown Coal Mine</v>
       </c>
-      <c r="D8" s="18" t="str">
+      <c r="D8" s="14" t="str">
         <f>SEC_Comm!C7</f>
         <v>BROWN_COAL</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="13">
         <v>100</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="12">
         <v>700</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="22"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="16"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="22"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="16"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="26"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="33" type="noConversion"/>
@@ -4345,198 +4446,199 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" style="58" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" style="58" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" style="58" customWidth="1"/>
+    <col min="5" max="11" width="11.453125" style="58" customWidth="1"/>
+    <col min="12" max="12" width="8.54296875" style="58" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="58"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18">
-      <c r="B2" s="93" t="s">
+    <row r="2" spans="2:12" ht="17.5">
+      <c r="B2" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="104"/>
+    </row>
+    <row r="3" spans="2:12" ht="13">
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="104"/>
+    </row>
+    <row r="4" spans="2:12" ht="13">
+      <c r="E4" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+    </row>
+    <row r="5" spans="2:12" ht="13">
+      <c r="B5" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="76"/>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="76"/>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="E4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="82" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="83" t="s">
+      <c r="E5" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" s="83" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="83" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" s="83" t="s">
+      <c r="F5" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="37.5">
+      <c r="B6" s="24" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" ht="39" thickBot="1">
-      <c r="B6" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="114" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="114" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="114" t="s">
+      <c r="F6" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="25">
+      <c r="B7" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="I6" s="114" t="s">
-        <v>93</v>
-      </c>
-      <c r="J6" s="114" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" s="114" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="26.25" thickBot="1">
-      <c r="B7" s="112" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="115" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="115" t="s">
-        <v>122</v>
-      </c>
-      <c r="H7" s="115" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" s="115" t="s">
-        <v>124</v>
-      </c>
-      <c r="J7" s="115" t="s">
-        <v>125</v>
-      </c>
-      <c r="K7" s="115" t="s">
-        <v>126</v>
+      <c r="I7" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" s="57" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="62" t="str">
+      <c r="B8" s="111" t="str">
         <f>SEC_Processes!D7</f>
         <v>ELE_EX_BELCHATOW</v>
       </c>
-      <c r="C8" s="62" t="str">
+      <c r="C8" s="111" t="str">
         <f>SEC_Processes!E7</f>
         <v>Belchatow Power Plant</v>
       </c>
-      <c r="D8" s="85" t="str">
+      <c r="D8" s="112" t="str">
         <f>SEC_Comm!C7</f>
         <v>BROWN_COAL</v>
       </c>
-      <c r="E8" s="85" t="str">
+      <c r="E8" s="112" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F8" s="86">
+      <c r="F8" s="113">
         <v>6.5</v>
       </c>
-      <c r="G8" s="86">
+      <c r="G8" s="113">
         <v>0.3</v>
       </c>
-      <c r="H8" s="87">
+      <c r="H8" s="114">
         <v>31.536000000000001</v>
       </c>
-      <c r="I8" s="87">
+      <c r="I8" s="114">
         <v>1</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="115">
         <v>1</v>
       </c>
-      <c r="K8" s="87">
+      <c r="K8" s="114">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
+    <row r="9" spans="2:12">
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="E14" s="113"/>
+      <c r="E14" s="121"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="E15" s="113"/>
+      <c r="E15" s="121"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4549,194 +4651,200 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31854235-9EEE-44B2-8649-8E7FE48F8F70}">
   <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="11" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="58"/>
+    <col min="2" max="2" width="17.1796875" style="58" customWidth="1"/>
+    <col min="3" max="11" width="11.453125" style="58" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="58"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="18">
-      <c r="B2" s="93" t="s">
+    <row r="2" spans="2:11" ht="17.5">
+      <c r="B2" s="99" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="103"/>
+    </row>
+    <row r="3" spans="2:11" ht="13">
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="103"/>
+    </row>
+    <row r="4" spans="2:11" ht="13">
+      <c r="E4" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+    </row>
+    <row r="5" spans="2:11" ht="13">
+      <c r="B5" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="75"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="E4" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="60"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="82" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="83" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="I5" s="83" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="83" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" s="83" t="s">
+      <c r="J5" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="37.5">
+      <c r="B6" s="24" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" ht="39" thickBot="1">
-      <c r="B6" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="84" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="84" t="s">
-        <v>91</v>
-      </c>
-      <c r="H6" s="84" t="s">
-        <v>92</v>
-      </c>
-      <c r="I6" s="84" t="s">
-        <v>93</v>
-      </c>
-      <c r="J6" s="84" t="s">
-        <v>94</v>
-      </c>
-      <c r="K6" s="84" t="s">
-        <v>95</v>
+      <c r="F6" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="87"/>
-    </row>
-    <row r="8" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-    </row>
-    <row r="10" spans="2:11" ht="18">
-      <c r="B10" s="93" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="60" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="94">
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="114"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+    </row>
+    <row r="10" spans="2:11" ht="17.5">
+      <c r="B10" s="99" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+    </row>
+    <row r="15" spans="2:11" ht="13">
+      <c r="B15" s="108" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="13">
+      <c r="B16" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="53">
         <v>2020</v>
       </c>
-      <c r="D16" s="94">
+      <c r="D16" s="53">
         <v>2021</v>
       </c>
-      <c r="E16" s="95">
+      <c r="E16" s="54">
         <v>2025</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="26.25" thickBot="1">
-      <c r="B17" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="118" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="62" t="str">
+    <row r="17" spans="2:7" ht="25">
+      <c r="B17" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="124" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="111" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="C18" s="85">
-        <v>200</v>
-      </c>
-      <c r="D18" s="85"/>
-      <c r="E18" s="86"/>
-    </row>
-    <row r="19" spans="2:5" ht="13.5" thickBot="1">
-      <c r="B19" s="88"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="90"/>
+      <c r="C18" s="112">
+        <v>150</v>
+      </c>
+      <c r="D18" s="112"/>
+      <c r="E18" s="113"/>
+      <c r="G18" s="58">
+        <f>+C18/PP!G8</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="116"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4755,103 +4863,103 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15">
-      <c r="B2" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+    <row r="2" spans="2:10" ht="15.5">
+      <c r="B2" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="59"/>
-      <c r="C4" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="H5" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="I5" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" s="54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="39" thickBot="1">
-      <c r="B6" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="119" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35"/>
+    </row>
+    <row r="4" spans="2:10" ht="13">
+      <c r="B4" s="36"/>
+      <c r="C4" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+    </row>
+    <row r="5" spans="2:10" ht="13">
+      <c r="B5" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="H5" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="38" thickBot="1">
+      <c r="B6" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="125" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="62"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="65"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="62"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="65"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-    </row>
-    <row r="11" spans="2:10" ht="13.5" thickBot="1">
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+    </row>
+    <row r="11" spans="2:10" ht="13" thickBot="1">
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4862,14 +4970,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="56d16bfd38a93d3246b87ec2f908dfef">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7776de10091f04de0bec4c5ba2ee03" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -4921,8 +5023,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Typ zawartości"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Tytuł"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -5011,7 +5113,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5020,30 +5122,43 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41AB35AE-AE16-422C-95C7-3A91F3841299}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24FCF40F-3BC7-4547-9987-907AA96C148C}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wyrwaa\Desktop\SES\VEDA_MODEL\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7735D12-3E1D-44D3-BFE7-D7678DDD9376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EFF858-45C8-49CA-8B56-39ED6081F9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4831,13 +4831,13 @@
         <v>ELEC_HV</v>
       </c>
       <c r="C18" s="112">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D18" s="112"/>
       <c r="E18" s="113"/>
       <c r="G18" s="58">
         <f>+C18/PP!G8</f>
-        <v>500</v>
+        <v>533.33333333333337</v>
       </c>
     </row>
     <row r="19" spans="2:7">
@@ -4970,6 +4970,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="56d16bfd38a93d3246b87ec2f908dfef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7776de10091f04de0bec4c5ba2ee03" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -5113,22 +5128,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41AB35AE-AE16-422C-95C7-3A91F3841299}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5144,21 +5161,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wyrwaa\Desktop\SES\VEDA_MODEL\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EFF858-45C8-49CA-8B56-39ED6081F9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC146562-9166-4336-856C-20EBCFA379F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -824,7 +824,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="134">
   <si>
     <t>Define commodities</t>
   </si>
@@ -1205,6 +1205,27 @@
   </si>
   <si>
     <t>Emission Factor</t>
+  </si>
+  <si>
+    <t>HARD_COAL</t>
+  </si>
+  <si>
+    <t>Hard Coal</t>
+  </si>
+  <si>
+    <t>ELE_EX_KOZIENICE</t>
+  </si>
+  <si>
+    <t>MIN_EX_HARD_COAL</t>
+  </si>
+  <si>
+    <t>Kozienice Power Plant</t>
+  </si>
+  <si>
+    <t>Hard Coal Mine</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -2440,7 +2461,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="277"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="277" applyFont="1"/>
@@ -2792,6 +2813,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="340">
@@ -3634,8 +3658,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -3802,12 +3826,22 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="66"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="78"/>
+      <c r="B9" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>21</v>
+      </c>
       <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
+      <c r="G9" s="73" t="s">
+        <v>22</v>
+      </c>
       <c r="H9" s="73"/>
       <c r="I9" s="73"/>
       <c r="J9" s="69"/>
@@ -3916,8 +3950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J24"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -4061,24 +4095,48 @@
       <c r="J8" s="77"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B9" s="70"/>
+      <c r="B9" s="70" t="s">
+        <v>55</v>
+      </c>
       <c r="C9" s="71"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
+      <c r="D9" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="73" t="s">
+        <v>26</v>
+      </c>
       <c r="I9" s="73"/>
       <c r="J9" s="73"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B10" s="74"/>
+      <c r="B10" s="74" t="s">
+        <v>59</v>
+      </c>
       <c r="C10" s="75"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
+      <c r="D10" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="77" t="s">
+        <v>22</v>
+      </c>
       <c r="I10" s="77"/>
       <c r="J10" s="77"/>
     </row>
@@ -4201,8 +4259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -4400,11 +4458,24 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="18"/>
+      <c r="B9" s="16" t="str">
+        <f>SEC_Processes!D10</f>
+        <v>MIN_EX_HARD_COAL</v>
+      </c>
+      <c r="C9" s="16" t="str">
+        <f>SEC_Processes!E10</f>
+        <v>Hard Coal Mine</v>
+      </c>
+      <c r="D9" s="17" t="str">
+        <f>SEC_Comm!C9</f>
+        <v>HARD_COAL</v>
+      </c>
+      <c r="E9" s="19">
+        <v>400</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1800</v>
+      </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="B10" s="11"/>
@@ -4446,8 +4517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -4622,20 +4693,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:12">
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
+    <row r="9" spans="2:12" ht="13" thickBot="1">
+      <c r="B9" s="116" t="str">
+        <f>SEC_Processes!D9</f>
+        <v>ELE_EX_KOZIENICE</v>
+      </c>
+      <c r="C9" s="116" t="str">
+        <f>SEC_Processes!E9</f>
+        <v>Kozienice Power Plant</v>
+      </c>
+      <c r="D9" s="117" t="str">
+        <f>SEC_Comm!C9</f>
+        <v>HARD_COAL</v>
+      </c>
+      <c r="E9" s="117" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="F9" s="118">
+        <v>4</v>
+      </c>
+      <c r="G9" s="118">
+        <v>0.35</v>
+      </c>
+      <c r="H9" s="119">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="I9" s="119">
+        <v>1</v>
+      </c>
+      <c r="J9" s="120">
+        <v>1</v>
+      </c>
+      <c r="K9" s="126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="G13" s="58">
+        <f>F8*H8*I8</f>
+        <v>204.98400000000001</v>
+      </c>
+      <c r="H13" s="58" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="2:12">
       <c r="E14" s="121"/>
+      <c r="G14" s="58">
+        <f>F9*H9*I9</f>
+        <v>126.14400000000001</v>
+      </c>
+      <c r="H14" s="58" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="15" spans="2:12">
       <c r="E15" s="121"/>
@@ -4651,7 +4762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31854235-9EEE-44B2-8649-8E7FE48F8F70}">
   <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -4831,13 +4942,13 @@
         <v>ELEC_HV</v>
       </c>
       <c r="C18" s="112">
-        <v>160</v>
+        <v>330</v>
       </c>
       <c r="D18" s="112"/>
       <c r="E18" s="113"/>
       <c r="G18" s="58">
         <f>+C18/PP!G8</f>
-        <v>533.33333333333337</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="19" spans="2:7">
@@ -4859,8 +4970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9957A375-FEFC-4DDE-99F9-B11B17811EEC}">
   <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -4970,21 +5081,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="56d16bfd38a93d3246b87ec2f908dfef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7776de10091f04de0bec4c5ba2ee03" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -5128,24 +5224,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41AB35AE-AE16-422C-95C7-3A91F3841299}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5161,4 +5255,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wyrwaa\Desktop\SES\VEDA_MODEL\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC146562-9166-4336-856C-20EBCFA379F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39712BE-F244-4AA5-AB93-A7230090BF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -824,7 +824,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="139">
   <si>
     <t>Define commodities</t>
   </si>
@@ -1226,6 +1226,21 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>WIND</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>ELE_EX_WIND_FARM</t>
+  </si>
+  <si>
+    <t>Wind farm</t>
+  </si>
+  <si>
+    <t>MIN_EX_WIND</t>
   </si>
 </sst>
 </file>
@@ -2461,7 +2476,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="277"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="277" applyFont="1"/>
@@ -2814,7 +2829,37 @@
     <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3658,8 +3703,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -3849,12 +3894,22 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="66"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="79"/>
+      <c r="B10" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="79" t="s">
+        <v>21</v>
+      </c>
       <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
+      <c r="G10" s="77" t="s">
+        <v>22</v>
+      </c>
       <c r="H10" s="77"/>
       <c r="I10" s="77"/>
       <c r="J10" s="69"/>
@@ -3951,7 +4006,7 @@
   <dimension ref="A2:J24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -4141,24 +4196,48 @@
       <c r="J10" s="77"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B11" s="70"/>
+      <c r="B11" s="70" t="s">
+        <v>55</v>
+      </c>
       <c r="C11" s="71"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
+      <c r="D11" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="73" t="s">
+        <v>26</v>
+      </c>
       <c r="I11" s="73"/>
       <c r="J11" s="73"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B12" s="94"/>
+      <c r="B12" s="94" t="s">
+        <v>59</v>
+      </c>
       <c r="C12" s="95"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
+      <c r="D12" s="96" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="97" t="s">
+        <v>22</v>
+      </c>
       <c r="I12" s="97"/>
       <c r="J12" s="97"/>
     </row>
@@ -4260,7 +4339,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -4478,11 +4557,24 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="12"/>
+      <c r="B10" s="11" t="str">
+        <f>SEC_Processes!D12</f>
+        <v>MIN_EX_WIND</v>
+      </c>
+      <c r="C10" s="11" t="str">
+        <f>SEC_Processes!E12</f>
+        <v>Wind</v>
+      </c>
+      <c r="D10" s="15" t="str">
+        <f>SEC_Comm!C10</f>
+        <v>WIND</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>100</v>
+      </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
       <c r="B11" s="16"/>
@@ -4517,8 +4609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -4693,39 +4785,75 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="13" thickBot="1">
-      <c r="B9" s="116" t="str">
+    <row r="9" spans="2:12">
+      <c r="B9" s="126" t="str">
         <f>SEC_Processes!D9</f>
         <v>ELE_EX_KOZIENICE</v>
       </c>
-      <c r="C9" s="116" t="str">
+      <c r="C9" s="126" t="str">
         <f>SEC_Processes!E9</f>
         <v>Kozienice Power Plant</v>
       </c>
-      <c r="D9" s="117" t="str">
+      <c r="D9" s="127" t="str">
         <f>SEC_Comm!C9</f>
         <v>HARD_COAL</v>
       </c>
-      <c r="E9" s="117" t="str">
+      <c r="E9" s="127" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F9" s="118">
+      <c r="F9" s="128">
         <v>4</v>
       </c>
-      <c r="G9" s="118">
+      <c r="G9" s="128">
         <v>0.35</v>
       </c>
-      <c r="H9" s="119">
+      <c r="H9" s="129">
         <v>31.536000000000001</v>
       </c>
-      <c r="I9" s="119">
+      <c r="I9" s="129">
         <v>1</v>
       </c>
-      <c r="J9" s="120">
+      <c r="J9" s="130">
         <v>1</v>
       </c>
-      <c r="K9" s="126">
+      <c r="K9" s="131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="13" thickBot="1">
+      <c r="B10" s="132" t="str">
+        <f>SEC_Processes!D11</f>
+        <v>ELE_EX_WIND_FARM</v>
+      </c>
+      <c r="C10" s="132" t="str">
+        <f>SEC_Processes!E11</f>
+        <v>Wind farm</v>
+      </c>
+      <c r="D10" s="133" t="str">
+        <f>SEC_Comm!C10</f>
+        <v>WIND</v>
+      </c>
+      <c r="E10" s="133" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="F10" s="134">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G10" s="134">
+        <v>0.45</v>
+      </c>
+      <c r="H10" s="135">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="I10" s="135">
+        <v>0.2</v>
+      </c>
+      <c r="J10" s="136">
+        <v>1</v>
+      </c>
+      <c r="K10" s="135">
         <v>1</v>
       </c>
     </row>
@@ -4763,7 +4891,7 @@
   <dimension ref="B2:K19"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -5081,6 +5209,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="56d16bfd38a93d3246b87ec2f908dfef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7776de10091f04de0bec4c5ba2ee03" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -5224,22 +5367,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41AB35AE-AE16-422C-95C7-3A91F3841299}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5255,21 +5400,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wyrwaa\Desktop\SES\VEDA_MODEL\2023.12.06 - Very Simple Times Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39712BE-F244-4AA5-AB93-A7230090BF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56324F56-CD01-4353-BA36-99FA5314A21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -31,17 +31,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -824,7 +813,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="143">
   <si>
     <t>Define commodities</t>
   </si>
@@ -1241,6 +1230,18 @@
   </si>
   <si>
     <t>MIN_EX_WIND</t>
+  </si>
+  <si>
+    <t>MIN_EX_WIND_ON</t>
+  </si>
+  <si>
+    <t>Wind mine</t>
+  </si>
+  <si>
+    <t>Wind Onshore</t>
+  </si>
+  <si>
+    <t>WIND_ON</t>
   </si>
 </sst>
 </file>
@@ -2476,7 +2477,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="277"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="277" applyFont="1"/>
@@ -2817,6 +2818,39 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2829,38 +2863,23 @@
     <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="278" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="340">
@@ -3224,7 +3243,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -3703,27 +3722,27 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" style="58" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" style="58" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" style="58" customWidth="1"/>
-    <col min="4" max="4" width="32.81640625" style="58" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" style="58" customWidth="1"/>
-    <col min="6" max="6" width="15.7265625" style="58" customWidth="1"/>
-    <col min="7" max="8" width="12.81640625" style="58" customWidth="1"/>
-    <col min="9" max="9" width="15.7265625" style="58" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="58" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="58" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" style="58" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="58" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="58" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="58" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="58" customWidth="1"/>
     <col min="10" max="10" width="3" style="58" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" style="58" customWidth="1"/>
-    <col min="12" max="12" width="12.54296875" style="58" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="58"/>
+    <col min="11" max="11" width="13.140625" style="58" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="58" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="17.5">
+    <row r="2" spans="1:11" ht="18">
       <c r="B2" s="59" t="s">
         <v>0</v>
       </c>
@@ -3746,11 +3765,11 @@
       <c r="H3" s="64"/>
       <c r="I3" s="64"/>
       <c r="J3" s="65"/>
-      <c r="K3" s="123" t="s">
+      <c r="K3" s="134" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17.5" customHeight="1">
+    <row r="4" spans="1:11" ht="17.45" customHeight="1">
       <c r="A4" s="66"/>
       <c r="B4" s="67" t="s">
         <v>2</v>
@@ -3763,7 +3782,7 @@
       <c r="H4" s="68"/>
       <c r="I4" s="68"/>
       <c r="J4" s="69"/>
-      <c r="K4" s="123"/>
+      <c r="K4" s="134"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="66"/>
@@ -3792,9 +3811,9 @@
         <v>10</v>
       </c>
       <c r="J5" s="69"/>
-      <c r="K5" s="123"/>
-    </row>
-    <row r="6" spans="1:11" ht="31.75" customHeight="1" thickBot="1">
+      <c r="K5" s="134"/>
+    </row>
+    <row r="6" spans="1:11" ht="31.7" customHeight="1" thickBot="1">
       <c r="A6" s="66"/>
       <c r="B6" s="28" t="s">
         <v>11</v>
@@ -3821,7 +3840,7 @@
         <v>17</v>
       </c>
       <c r="J6" s="69"/>
-      <c r="K6" s="123"/>
+      <c r="K6" s="134"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="66"/>
@@ -3844,7 +3863,7 @@
       <c r="H7" s="73"/>
       <c r="I7" s="73"/>
       <c r="J7" s="69"/>
-      <c r="K7" s="123"/>
+      <c r="K7" s="134"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="66"/>
@@ -3867,7 +3886,7 @@
       <c r="H8" s="77"/>
       <c r="I8" s="77"/>
       <c r="J8" s="69"/>
-      <c r="K8" s="123"/>
+      <c r="K8" s="134"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="66"/>
@@ -3890,7 +3909,7 @@
       <c r="H9" s="73"/>
       <c r="I9" s="73"/>
       <c r="J9" s="69"/>
-      <c r="K9" s="123"/>
+      <c r="K9" s="134"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="66"/>
@@ -3913,22 +3932,32 @@
       <c r="H10" s="77"/>
       <c r="I10" s="77"/>
       <c r="J10" s="69"/>
-      <c r="K10" s="123"/>
+      <c r="K10" s="134"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A11" s="66"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="82"/>
+      <c r="B11" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="82" t="s">
+        <v>21</v>
+      </c>
       <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
+      <c r="G11" s="83" t="s">
+        <v>22</v>
+      </c>
       <c r="H11" s="83"/>
       <c r="I11" s="83"/>
       <c r="J11" s="69"/>
-      <c r="K11" s="123"/>
-    </row>
-    <row r="12" spans="1:11" ht="13" thickBot="1">
+      <c r="K11" s="134"/>
+    </row>
+    <row r="12" spans="1:11" ht="13.5" thickBot="1">
       <c r="A12" s="84"/>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
@@ -3939,14 +3968,14 @@
       <c r="H12" s="85"/>
       <c r="I12" s="85"/>
       <c r="J12" s="86"/>
-      <c r="K12" s="123"/>
+      <c r="K12" s="134"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B15" s="122" t="s">
+      <c r="B15" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="122"/>
+      <c r="C15" s="133"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="B16" s="87" t="s">
@@ -4003,24 +4032,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:J24"/>
+  <dimension ref="A2:J26"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" style="58" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" style="58" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" style="58" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="58" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="58" customWidth="1"/>
     <col min="4" max="4" width="25" style="58" customWidth="1"/>
-    <col min="5" max="5" width="28.54296875" style="58" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="58" customWidth="1"/>
     <col min="6" max="7" width="10" style="58" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" style="58" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" style="58" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="58" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="58" customWidth="1"/>
     <col min="10" max="10" width="10" style="58" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="58"/>
+    <col min="11" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18" customHeight="1">
@@ -4219,99 +4248,111 @@
       <c r="J11" s="73"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="96" t="s">
+      <c r="C12" s="138"/>
+      <c r="D12" s="139" t="s">
         <v>138</v>
       </c>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="139" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="97" t="s">
+      <c r="F12" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="97" t="s">
+      <c r="G12" s="140" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="97" t="s">
+      <c r="H12" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="98" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="98" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="98" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="98" t="s">
-        <v>65</v>
-      </c>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="71"/>
+      <c r="D13" s="73" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="78" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.5" thickBot="1">
+      <c r="B14" s="94"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="98" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C18" s="98" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="98" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C19" s="98" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="98" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C20" s="98" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="98" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="98" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C21" s="98" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="98" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="98" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C22" s="98" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E22" s="98" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="98" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C23" s="98" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E23" s="98" t="s">
         <v>75</v>
@@ -4319,9 +4360,31 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="98" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="98" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="98" t="s">
+      <c r="C26" s="98" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4338,19 +4401,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" customWidth="1"/>
-    <col min="3" max="3" width="27.1796875" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
-    <col min="8" max="10" width="15.81640625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="8" max="10" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -4374,7 +4437,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" ht="17.5">
+    <row r="2" spans="1:20" ht="18">
       <c r="A2" s="1"/>
       <c r="B2" s="6" t="s">
         <v>82</v>
@@ -4462,7 +4525,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" ht="25.5" thickBot="1">
+    <row r="6" spans="1:20" ht="26.25" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="24" t="s">
         <v>88</v>
@@ -4491,7 +4554,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" ht="13" thickBot="1">
+    <row r="7" spans="1:20" ht="13.5" thickBot="1">
       <c r="A7" s="1"/>
       <c r="B7" s="55" t="s">
         <v>92</v>
@@ -4569,18 +4632,29 @@
         <f>SEC_Comm!C10</f>
         <v>WIND</v>
       </c>
-      <c r="E10" s="13">
-        <v>0</v>
+      <c r="E10" s="142">
+        <v>1E-3</v>
       </c>
       <c r="F10" s="12">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="19"/>
+      <c r="B11" s="16" t="str">
+        <f>SEC_Processes!D13</f>
+        <v>MIN_EX_WIND_ON</v>
+      </c>
+      <c r="C11" s="16" t="str">
+        <f>SEC_Comm!D11</f>
+        <v>Wind Onshore</v>
+      </c>
+      <c r="D11" s="17" t="str">
+        <f>SEC_Comm!C11</f>
+        <v>WIND_ON</v>
+      </c>
+      <c r="E11" s="141">
+        <v>1E-3</v>
+      </c>
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
@@ -4610,21 +4684,21 @@
   <dimension ref="B2:L15"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" style="58" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" style="58" customWidth="1"/>
-    <col min="3" max="3" width="22.453125" style="58" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" style="58" customWidth="1"/>
-    <col min="5" max="11" width="11.453125" style="58" customWidth="1"/>
-    <col min="12" max="12" width="8.54296875" style="58" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="58"/>
+    <col min="1" max="1" width="4.7109375" style="58" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" style="58" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="58" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="58" customWidth="1"/>
+    <col min="5" max="11" width="11.42578125" style="58" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" style="58" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="17.5">
+    <row r="2" spans="2:12" ht="18">
       <c r="B2" s="99" t="s">
         <v>95</v>
       </c>
@@ -4637,7 +4711,7 @@
       <c r="K2" s="103"/>
       <c r="L2" s="104"/>
     </row>
-    <row r="3" spans="2:12" ht="13">
+    <row r="3" spans="2:12">
       <c r="B3" s="105"/>
       <c r="C3" s="106"/>
       <c r="E3" s="107"/>
@@ -4647,7 +4721,7 @@
       <c r="K3" s="103"/>
       <c r="L3" s="104"/>
     </row>
-    <row r="4" spans="2:12" ht="13">
+    <row r="4" spans="2:12">
       <c r="E4" s="108" t="s">
         <v>83</v>
       </c>
@@ -4659,7 +4733,7 @@
       <c r="K4" s="110"/>
       <c r="L4" s="110"/>
     </row>
-    <row r="5" spans="2:12" ht="13">
+    <row r="5" spans="2:12">
       <c r="B5" s="49" t="s">
         <v>40</v>
       </c>
@@ -4691,7 +4765,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="37.5">
+    <row r="6" spans="2:12" ht="38.25">
       <c r="B6" s="24" t="s">
         <v>88</v>
       </c>
@@ -4723,7 +4797,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="25">
+    <row r="7" spans="2:12" ht="25.5">
       <c r="B7" s="55" t="s">
         <v>92</v>
       </c>
@@ -4786,74 +4860,74 @@
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="126" t="str">
+      <c r="B9" s="122" t="str">
         <f>SEC_Processes!D9</f>
         <v>ELE_EX_KOZIENICE</v>
       </c>
-      <c r="C9" s="126" t="str">
+      <c r="C9" s="122" t="str">
         <f>SEC_Processes!E9</f>
         <v>Kozienice Power Plant</v>
       </c>
-      <c r="D9" s="127" t="str">
+      <c r="D9" s="123" t="str">
         <f>SEC_Comm!C9</f>
         <v>HARD_COAL</v>
       </c>
-      <c r="E9" s="127" t="str">
+      <c r="E9" s="123" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F9" s="128">
+      <c r="F9" s="124">
         <v>4</v>
       </c>
-      <c r="G9" s="128">
+      <c r="G9" s="124">
         <v>0.35</v>
       </c>
-      <c r="H9" s="129">
+      <c r="H9" s="125">
         <v>31.536000000000001</v>
       </c>
-      <c r="I9" s="129">
+      <c r="I9" s="125">
         <v>1</v>
       </c>
-      <c r="J9" s="130">
+      <c r="J9" s="126">
         <v>1</v>
       </c>
-      <c r="K9" s="131">
+      <c r="K9" s="127">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="13" thickBot="1">
-      <c r="B10" s="132" t="str">
+    <row r="10" spans="2:12" ht="13.5" thickBot="1">
+      <c r="B10" s="128" t="str">
         <f>SEC_Processes!D11</f>
         <v>ELE_EX_WIND_FARM</v>
       </c>
-      <c r="C10" s="132" t="str">
+      <c r="C10" s="128" t="str">
         <f>SEC_Processes!E11</f>
         <v>Wind farm</v>
       </c>
-      <c r="D10" s="133" t="str">
+      <c r="D10" s="129" t="str">
         <f>SEC_Comm!C10</f>
         <v>WIND</v>
       </c>
-      <c r="E10" s="133" t="str">
+      <c r="E10" s="129" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F10" s="134">
+      <c r="F10" s="130">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G10" s="134">
+      <c r="G10" s="130">
         <v>0.45</v>
       </c>
-      <c r="H10" s="135">
+      <c r="H10" s="131">
         <v>31.536000000000001</v>
       </c>
-      <c r="I10" s="135">
+      <c r="I10" s="131">
         <v>0.2</v>
       </c>
-      <c r="J10" s="136">
+      <c r="J10" s="132">
         <v>1</v>
       </c>
-      <c r="K10" s="135">
+      <c r="K10" s="131">
         <v>1</v>
       </c>
     </row>
@@ -4891,18 +4965,18 @@
   <dimension ref="B2:K19"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="58"/>
-    <col min="2" max="2" width="17.1796875" style="58" customWidth="1"/>
-    <col min="3" max="11" width="11.453125" style="58" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="58"/>
+    <col min="1" max="1" width="9.140625" style="58"/>
+    <col min="2" max="2" width="17.140625" style="58" customWidth="1"/>
+    <col min="3" max="11" width="11.42578125" style="58" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="17.5">
+    <row r="2" spans="2:11" ht="18">
       <c r="B2" s="99" t="s">
         <v>115</v>
       </c>
@@ -4916,7 +4990,7 @@
       <c r="J2" s="102"/>
       <c r="K2" s="103"/>
     </row>
-    <row r="3" spans="2:11" ht="13">
+    <row r="3" spans="2:11">
       <c r="B3" s="105"/>
       <c r="C3" s="106"/>
       <c r="E3" s="107"/>
@@ -4925,7 +4999,7 @@
       <c r="J3" s="102"/>
       <c r="K3" s="103"/>
     </row>
-    <row r="4" spans="2:11" ht="13">
+    <row r="4" spans="2:11">
       <c r="E4" s="108" t="s">
         <v>83</v>
       </c>
@@ -4936,7 +5010,7 @@
       <c r="J4" s="110"/>
       <c r="K4" s="110"/>
     </row>
-    <row r="5" spans="2:11" ht="13">
+    <row r="5" spans="2:11">
       <c r="B5" s="49" t="s">
         <v>40</v>
       </c>
@@ -4968,7 +5042,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="37.5">
+    <row r="6" spans="2:11" ht="38.25">
       <c r="B6" s="24" t="s">
         <v>88</v>
       </c>
@@ -5024,7 +5098,7 @@
       <c r="J8" s="120"/>
       <c r="K8" s="120"/>
     </row>
-    <row r="10" spans="2:11" ht="17.5">
+    <row r="10" spans="2:11" ht="18">
       <c r="B10" s="99" t="s">
         <v>116</v>
       </c>
@@ -5035,12 +5109,12 @@
       <c r="G10" s="100"/>
       <c r="H10" s="100"/>
     </row>
-    <row r="15" spans="2:11" ht="13">
+    <row r="15" spans="2:11">
       <c r="B15" s="108" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="13">
+    <row r="16" spans="2:11">
       <c r="B16" s="49" t="s">
         <v>4</v>
       </c>
@@ -5054,15 +5128,15 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="25">
+    <row r="17" spans="2:7" ht="25.5">
       <c r="B17" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="124" t="s">
+      <c r="C17" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="111" t="str">
@@ -5102,13 +5176,13 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="29.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15.5">
+    <row r="2" spans="2:10" ht="15">
       <c r="B2" s="32" t="s">
         <v>120</v>
       </c>
@@ -5124,7 +5198,7 @@
       <c r="E3" s="34"/>
       <c r="F3" s="35"/>
     </row>
-    <row r="4" spans="2:10" ht="13">
+    <row r="4" spans="2:10">
       <c r="B4" s="36"/>
       <c r="C4" s="37" t="s">
         <v>121</v>
@@ -5132,7 +5206,7 @@
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
     </row>
-    <row r="5" spans="2:10" ht="13">
+    <row r="5" spans="2:10">
       <c r="B5" s="38" t="s">
         <v>40</v>
       </c>
@@ -5152,18 +5226,18 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="38" thickBot="1">
+    <row r="6" spans="2:10" ht="39" thickBot="1">
       <c r="B6" s="24" t="s">
         <v>88</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="125" t="s">
+      <c r="D6" s="136" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="39"/>
@@ -5193,7 +5267,7 @@
       <c r="E10" s="44"/>
       <c r="F10" s="44"/>
     </row>
-    <row r="11" spans="2:10" ht="13" thickBot="1">
+    <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="45"/>
       <c r="C11" s="46"/>
       <c r="D11" s="47"/>
@@ -5209,18 +5283,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5368,18 +5442,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Wyrwa\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56324F56-CD01-4353-BA36-99FA5314A21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD2AC71-A66C-41F8-8AC0-F9D772170AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="147">
   <si>
     <t>Define commodities</t>
   </si>
@@ -1242,6 +1242,18 @@
   </si>
   <si>
     <t>WIND_ON</t>
+  </si>
+  <si>
+    <t>ELE_EX_WIND_ON</t>
+  </si>
+  <si>
+    <t>Wind Turbine Onshore</t>
+  </si>
+  <si>
+    <t>Limited output</t>
+  </si>
+  <si>
+    <t>Maximum output</t>
   </si>
 </sst>
 </file>
@@ -2477,7 +2489,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="277"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="277" applyFont="1"/>
@@ -2851,6 +2863,15 @@
     <xf numFmtId="2" fontId="5" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="278" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2863,23 +2884,20 @@
     <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="278" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="340">
@@ -3765,7 +3783,7 @@
       <c r="H3" s="64"/>
       <c r="I3" s="64"/>
       <c r="J3" s="65"/>
-      <c r="K3" s="134" t="s">
+      <c r="K3" s="137" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3782,7 +3800,7 @@
       <c r="H4" s="68"/>
       <c r="I4" s="68"/>
       <c r="J4" s="69"/>
-      <c r="K4" s="134"/>
+      <c r="K4" s="137"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="66"/>
@@ -3811,7 +3829,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="69"/>
-      <c r="K5" s="134"/>
+      <c r="K5" s="137"/>
     </row>
     <row r="6" spans="1:11" ht="31.7" customHeight="1" thickBot="1">
       <c r="A6" s="66"/>
@@ -3840,7 +3858,7 @@
         <v>17</v>
       </c>
       <c r="J6" s="69"/>
-      <c r="K6" s="134"/>
+      <c r="K6" s="137"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="66"/>
@@ -3863,7 +3881,7 @@
       <c r="H7" s="73"/>
       <c r="I7" s="73"/>
       <c r="J7" s="69"/>
-      <c r="K7" s="134"/>
+      <c r="K7" s="137"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="66"/>
@@ -3886,7 +3904,7 @@
       <c r="H8" s="77"/>
       <c r="I8" s="77"/>
       <c r="J8" s="69"/>
-      <c r="K8" s="134"/>
+      <c r="K8" s="137"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="66"/>
@@ -3909,7 +3927,7 @@
       <c r="H9" s="73"/>
       <c r="I9" s="73"/>
       <c r="J9" s="69"/>
-      <c r="K9" s="134"/>
+      <c r="K9" s="137"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="66"/>
@@ -3932,7 +3950,7 @@
       <c r="H10" s="77"/>
       <c r="I10" s="77"/>
       <c r="J10" s="69"/>
-      <c r="K10" s="134"/>
+      <c r="K10" s="137"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A11" s="66"/>
@@ -3955,7 +3973,7 @@
       <c r="H11" s="83"/>
       <c r="I11" s="83"/>
       <c r="J11" s="69"/>
-      <c r="K11" s="134"/>
+      <c r="K11" s="137"/>
     </row>
     <row r="12" spans="1:11" ht="13.5" thickBot="1">
       <c r="A12" s="84"/>
@@ -3968,14 +3986,14 @@
       <c r="H12" s="85"/>
       <c r="I12" s="85"/>
       <c r="J12" s="86"/>
-      <c r="K12" s="134"/>
+      <c r="K12" s="137"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B15" s="133" t="s">
+      <c r="B15" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="133"/>
+      <c r="C15" s="136"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="B16" s="87" t="s">
@@ -4035,7 +4053,7 @@
   <dimension ref="A2:J26"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4248,27 +4266,27 @@
       <c r="J11" s="73"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="138"/>
-      <c r="D12" s="139" t="s">
+      <c r="C12" s="133"/>
+      <c r="D12" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="E12" s="139" t="s">
+      <c r="E12" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="140" t="s">
+      <c r="F12" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="140" t="s">
+      <c r="G12" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="140" t="s">
+      <c r="H12" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="70" t="s">
@@ -4294,13 +4312,25 @@
       <c r="J13" s="73"/>
     </row>
     <row r="14" spans="1:10" ht="13.5" thickBot="1">
-      <c r="B14" s="94"/>
+      <c r="B14" s="94" t="s">
+        <v>55</v>
+      </c>
       <c r="C14" s="95"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
+      <c r="D14" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="96" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="97" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="97" t="s">
+        <v>26</v>
+      </c>
       <c r="I14" s="97"/>
       <c r="J14" s="97"/>
     </row>
@@ -4401,8 +4431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4632,7 +4662,7 @@
         <f>SEC_Comm!C10</f>
         <v>WIND</v>
       </c>
-      <c r="E10" s="142">
+      <c r="E10" s="135">
         <v>1E-3</v>
       </c>
       <c r="F10" s="12">
@@ -4652,7 +4682,7 @@
         <f>SEC_Comm!C11</f>
         <v>WIND_ON</v>
       </c>
-      <c r="E11" s="141">
+      <c r="E11" s="134">
         <v>1E-3</v>
       </c>
       <c r="F11" s="18"/>
@@ -4681,10 +4711,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
-  <dimension ref="B2:L15"/>
+  <dimension ref="B2:L19"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4895,63 +4925,133 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B10" s="128" t="str">
+    <row r="10" spans="2:12">
+      <c r="B10" s="140" t="str">
         <f>SEC_Processes!D11</f>
         <v>ELE_EX_WIND_FARM</v>
       </c>
-      <c r="C10" s="128" t="str">
+      <c r="C10" s="140" t="str">
         <f>SEC_Processes!E11</f>
         <v>Wind farm</v>
       </c>
-      <c r="D10" s="129" t="str">
+      <c r="D10" s="141" t="str">
         <f>SEC_Comm!C10</f>
         <v>WIND</v>
       </c>
-      <c r="E10" s="129" t="str">
+      <c r="E10" s="141" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F10" s="130">
+      <c r="F10" s="142">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G10" s="130">
-        <v>0.45</v>
-      </c>
-      <c r="H10" s="131">
+      <c r="G10" s="142">
+        <v>1</v>
+      </c>
+      <c r="H10" s="143">
         <v>31.536000000000001</v>
       </c>
-      <c r="I10" s="131">
+      <c r="I10" s="143">
         <v>0.2</v>
       </c>
-      <c r="J10" s="132">
+      <c r="J10" s="144">
         <v>1</v>
       </c>
-      <c r="K10" s="131">
+      <c r="K10" s="143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="122" t="str">
+        <f>SEC_Processes!D14</f>
+        <v>ELE_EX_WIND_ON</v>
+      </c>
+      <c r="C11" s="122" t="str">
+        <f>SEC_Processes!E14</f>
+        <v>Wind Turbine Onshore</v>
+      </c>
+      <c r="D11" s="123" t="str">
+        <f>SEC_Comm!C11</f>
+        <v>WIND_ON</v>
+      </c>
+      <c r="E11" s="123" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="F11" s="124">
+        <v>1.345</v>
+      </c>
+      <c r="G11" s="124">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:12">
-      <c r="G13" s="58">
+      <c r="H11" s="125">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="I11" s="125">
+        <v>0.33</v>
+      </c>
+      <c r="J11" s="126">
+        <v>1</v>
+      </c>
+      <c r="K11" s="127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="13.5" thickBot="1">
+      <c r="B12" s="128"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="131"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="E14" s="121"/>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="E15" s="121"/>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="58">
+        <f>F11*H11</f>
+        <v>42.41592</v>
+      </c>
+      <c r="E18" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="58">
         <f>F8*H8*I8</f>
         <v>204.98400000000001</v>
       </c>
-      <c r="H13" s="58" t="s">
+      <c r="J18" s="58" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
-      <c r="E14" s="121"/>
-      <c r="G14" s="58">
+    <row r="19" spans="3:10">
+      <c r="C19" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="58">
+        <f>D18*I11</f>
+        <v>13.997253600000001</v>
+      </c>
+      <c r="E19" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="58">
         <f>F9*H9*I9</f>
         <v>126.14400000000001</v>
       </c>
-      <c r="H14" s="58" t="s">
+      <c r="J19" s="58" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="15" spans="2:12">
-      <c r="E15" s="121"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5132,11 +5232,11 @@
       <c r="B17" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="135" t="s">
+      <c r="C17" s="138" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="111" t="str">
@@ -5233,11 +5333,11 @@
       <c r="C6" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="136" t="s">
+      <c r="D6" s="139" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="39"/>
@@ -5283,21 +5383,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="56d16bfd38a93d3246b87ec2f908dfef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7776de10091f04de0bec4c5ba2ee03" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -5441,24 +5526,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41AB35AE-AE16-422C-95C7-3A91F3841299}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5474,4 +5557,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Wyrwa\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD2AC71-A66C-41F8-8AC0-F9D772170AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2E6FFD-E899-4133-A4C7-88C6E61D3EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="154">
   <si>
     <t>Define commodities</t>
   </si>
@@ -1254,16 +1254,38 @@
   </si>
   <si>
     <t>Maximum output</t>
+  </si>
+  <si>
+    <t>Coal price</t>
+  </si>
+  <si>
+    <t>Fuel cost</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>Photovoltaic</t>
+  </si>
+  <si>
+    <t>MIN_EX_PV</t>
+  </si>
+  <si>
+    <t>Photovoltaic mine</t>
+  </si>
+  <si>
+    <t>ELE_EX_PV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
   <fonts count="60">
     <font>
@@ -2489,7 +2511,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="277"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="277" applyFont="1"/>
@@ -2848,21 +2870,6 @@
     <xf numFmtId="1" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="278" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2897,6 +2904,39 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="278" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3738,10 +3778,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:K20"/>
+  <dimension ref="A2:K23"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3783,7 +3823,7 @@
       <c r="H3" s="64"/>
       <c r="I3" s="64"/>
       <c r="J3" s="65"/>
-      <c r="K3" s="137" t="s">
+      <c r="K3" s="132" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3800,7 +3840,7 @@
       <c r="H4" s="68"/>
       <c r="I4" s="68"/>
       <c r="J4" s="69"/>
-      <c r="K4" s="137"/>
+      <c r="K4" s="132"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="66"/>
@@ -3829,7 +3869,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="69"/>
-      <c r="K5" s="137"/>
+      <c r="K5" s="132"/>
     </row>
     <row r="6" spans="1:11" ht="31.7" customHeight="1" thickBot="1">
       <c r="A6" s="66"/>
@@ -3858,7 +3898,7 @@
         <v>17</v>
       </c>
       <c r="J6" s="69"/>
-      <c r="K6" s="137"/>
+      <c r="K6" s="132"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="66"/>
@@ -3881,7 +3921,7 @@
       <c r="H7" s="73"/>
       <c r="I7" s="73"/>
       <c r="J7" s="69"/>
-      <c r="K7" s="137"/>
+      <c r="K7" s="132"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="66"/>
@@ -3904,7 +3944,7 @@
       <c r="H8" s="77"/>
       <c r="I8" s="77"/>
       <c r="J8" s="69"/>
-      <c r="K8" s="137"/>
+      <c r="K8" s="132"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="66"/>
@@ -3927,7 +3967,7 @@
       <c r="H9" s="73"/>
       <c r="I9" s="73"/>
       <c r="J9" s="69"/>
-      <c r="K9" s="137"/>
+      <c r="K9" s="132"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="66"/>
@@ -3950,94 +3990,140 @@
       <c r="H10" s="77"/>
       <c r="I10" s="77"/>
       <c r="J10" s="69"/>
-      <c r="K10" s="137"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="K10" s="132"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="66"/>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="143" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="142" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="82" t="s">
+      <c r="E11" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83" t="s">
+      <c r="F11" s="145"/>
+      <c r="G11" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="145"/>
       <c r="J11" s="69"/>
-      <c r="K11" s="137"/>
+      <c r="K11" s="132"/>
     </row>
     <row r="12" spans="1:11" ht="13.5" thickBot="1">
       <c r="A12" s="84"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
+      <c r="B12" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
       <c r="J12" s="86"/>
-      <c r="K12" s="137"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B15" s="136" t="s">
+      <c r="K12" s="132"/>
+    </row>
+    <row r="13" spans="1:11" ht="13.5" thickBot="1">
+      <c r="A13" s="66"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="69"/>
+    </row>
+    <row r="14" spans="1:11" ht="13.5" thickBot="1">
+      <c r="A14" s="66"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="69"/>
+    </row>
+    <row r="15" spans="1:11" ht="13.5" thickBot="1">
+      <c r="A15" s="84"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="86"/>
+    </row>
+    <row r="17" spans="2:3" ht="15.75" customHeight="1"/>
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B18" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="136"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B16" s="87" t="s">
+      <c r="C18" s="131"/>
+    </row>
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B19" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="87" t="s">
+      <c r="C19" s="87" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B17" s="88" t="s">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B20" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C20" s="88" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B18" s="89" t="s">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
+      <c r="B21" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="89" t="s">
+      <c r="C21" s="89" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="88" t="s">
+    <row r="22" spans="2:3">
+      <c r="B22" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C22" s="88" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="90" t="s">
+    <row r="23" spans="2:3">
+      <c r="B23" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="90" t="s">
+      <c r="C23" s="90" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="K3:K12"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -4050,10 +4136,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:J26"/>
+  <dimension ref="A2:J28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4269,7 +4355,7 @@
       <c r="B12" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="133"/>
+      <c r="C12" s="128"/>
       <c r="D12" s="74" t="s">
         <v>138</v>
       </c>
@@ -4311,100 +4397,124 @@
       <c r="I13" s="73"/>
       <c r="J13" s="73"/>
     </row>
-    <row r="14" spans="1:10" ht="13.5" thickBot="1">
-      <c r="B14" s="94" t="s">
+    <row r="14" spans="1:10">
+      <c r="B14" s="146" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="96" t="s">
+      <c r="C14" s="147"/>
+      <c r="D14" s="148" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="96" t="s">
+      <c r="E14" s="148" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="97" t="s">
+      <c r="F14" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="97" t="s">
+      <c r="G14" s="149" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="97" t="s">
+      <c r="H14" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="98" t="s">
+      <c r="I14" s="149"/>
+      <c r="J14" s="149"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="71"/>
+      <c r="D15" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+    </row>
+    <row r="16" spans="1:10" ht="13.5" thickBot="1">
+      <c r="B16" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="98" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="98" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="98" t="s">
-        <v>65</v>
-      </c>
+      <c r="C16" s="95"/>
+      <c r="D16" s="96" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="96" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="97" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="98" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C20" s="98" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="98" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C21" s="98" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="98" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C22" s="98" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="98" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="98" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C23" s="98" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="98" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="98" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C24" s="98" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E24" s="98" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="98" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C25" s="98" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E25" s="98" t="s">
         <v>75</v>
@@ -4412,9 +4522,31 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="98" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="98" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="98" t="s">
+      <c r="C28" s="98" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4432,7 +4564,7 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4662,7 +4794,7 @@
         <f>SEC_Comm!C10</f>
         <v>WIND</v>
       </c>
-      <c r="E10" s="135">
+      <c r="E10" s="130">
         <v>1E-3</v>
       </c>
       <c r="F10" s="12">
@@ -4682,16 +4814,27 @@
         <f>SEC_Comm!C11</f>
         <v>WIND_ON</v>
       </c>
-      <c r="E11" s="134">
+      <c r="E11" s="129">
         <v>1E-3</v>
       </c>
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13"/>
+      <c r="B12" s="11" t="str">
+        <f>SEC_Processes!D15</f>
+        <v>MIN_EX_PV</v>
+      </c>
+      <c r="C12" s="11" t="str">
+        <f>SEC_Comm!D12</f>
+        <v>Photovoltaic</v>
+      </c>
+      <c r="D12" s="14" t="str">
+        <f>SEC_Comm!C12</f>
+        <v>PV</v>
+      </c>
+      <c r="E12" s="130">
+        <v>1E-3</v>
+      </c>
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
@@ -4711,10 +4854,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
-  <dimension ref="B2:L19"/>
+  <dimension ref="B2:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4926,38 +5069,38 @@
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="140" t="str">
+      <c r="B10" s="135" t="str">
         <f>SEC_Processes!D11</f>
         <v>ELE_EX_WIND_FARM</v>
       </c>
-      <c r="C10" s="140" t="str">
+      <c r="C10" s="135" t="str">
         <f>SEC_Processes!E11</f>
         <v>Wind farm</v>
       </c>
-      <c r="D10" s="141" t="str">
+      <c r="D10" s="136" t="str">
         <f>SEC_Comm!C10</f>
         <v>WIND</v>
       </c>
-      <c r="E10" s="141" t="str">
+      <c r="E10" s="136" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F10" s="142">
+      <c r="F10" s="137">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G10" s="142">
+      <c r="G10" s="137">
         <v>1</v>
       </c>
-      <c r="H10" s="143">
+      <c r="H10" s="138">
         <v>31.536000000000001</v>
       </c>
-      <c r="I10" s="143">
+      <c r="I10" s="138">
         <v>0.2</v>
       </c>
-      <c r="J10" s="144">
+      <c r="J10" s="139">
         <v>1</v>
       </c>
-      <c r="K10" s="143">
+      <c r="K10" s="138">
         <v>0</v>
       </c>
     </row>
@@ -4997,60 +5140,126 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B12" s="128"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="132"/>
-      <c r="K12" s="131"/>
-    </row>
-    <row r="14" spans="2:12">
-      <c r="E14" s="121"/>
+    <row r="12" spans="2:12">
+      <c r="B12" s="135" t="str">
+        <f>SEC_Processes!D16</f>
+        <v>ELE_EX_PV</v>
+      </c>
+      <c r="C12" s="135" t="str">
+        <f>SEC_Processes!E16</f>
+        <v>Photovoltaic</v>
+      </c>
+      <c r="D12" s="136" t="str">
+        <f>SEC_Comm!C12</f>
+        <v>PV</v>
+      </c>
+      <c r="E12" s="136" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="F12" s="137">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="137">
+        <v>1</v>
+      </c>
+      <c r="H12" s="138">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="I12" s="138">
+        <v>0.25</v>
+      </c>
+      <c r="J12" s="139">
+        <v>1</v>
+      </c>
+      <c r="K12" s="138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="13.5" thickBot="1">
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="150"/>
     </row>
     <row r="15" spans="2:12">
       <c r="E15" s="121"/>
     </row>
-    <row r="18" spans="3:10">
-      <c r="C18" s="58" t="s">
+    <row r="16" spans="2:12">
+      <c r="E16" s="121"/>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="58">
+      <c r="D19" s="58">
         <f>F11*H11</f>
         <v>42.41592</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E19" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="58">
+      <c r="I19" s="58">
         <f>F8*H8*I8</f>
         <v>204.98400000000001</v>
       </c>
-      <c r="J18" s="58" t="s">
+      <c r="J19" s="58" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="3:10">
-      <c r="C19" s="58" t="s">
+    <row r="20" spans="3:10">
+      <c r="C20" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="D19" s="58">
-        <f>D18*I11</f>
+      <c r="D20" s="58">
+        <f>D19*I11</f>
         <v>13.997253600000001</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E20" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="58">
+      <c r="I20" s="58">
         <f>F9*H9*I9</f>
         <v>126.14400000000001</v>
       </c>
-      <c r="J19" s="58" t="s">
+      <c r="J20" s="58" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="140">
+        <f>MIN_IMP!E8</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10">
+      <c r="C23" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="58">
+        <f>D22/G8</f>
+        <v>333.33333333333337</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10">
+      <c r="D24" s="58">
+        <f>1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10">
+      <c r="D25" s="141">
+        <f>SUM(D23:D24)</f>
+        <v>334.33333333333337</v>
       </c>
     </row>
   </sheetData>
@@ -5232,11 +5441,11 @@
       <c r="B17" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="138" t="s">
+      <c r="C17" s="133" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="111" t="str">
@@ -5333,11 +5542,11 @@
       <c r="C6" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="139" t="s">
+      <c r="D6" s="134" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="39"/>

--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Wyrwa\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2E6FFD-E899-4133-A4C7-88C6E61D3EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EB6F16-6F68-49FA-AEE7-9E79D217608A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="155">
   <si>
     <t>Define commodities</t>
   </si>
@@ -1275,6 +1275,9 @@
   </si>
   <si>
     <t>ELE_EX_PV</t>
+  </si>
+  <si>
+    <t>WEEKLY</t>
   </si>
 </sst>
 </file>
@@ -1285,7 +1288,7 @@
     <numFmt numFmtId="164" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="60">
     <font>
@@ -2511,7 +2514,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="277"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="277" applyFont="1"/>
@@ -2879,6 +2882,18 @@
     <xf numFmtId="166" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2890,54 +2905,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="278" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="340">
@@ -3823,7 +3790,7 @@
       <c r="H3" s="64"/>
       <c r="I3" s="64"/>
       <c r="J3" s="65"/>
-      <c r="K3" s="132" t="s">
+      <c r="K3" s="136" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3840,7 +3807,7 @@
       <c r="H4" s="68"/>
       <c r="I4" s="68"/>
       <c r="J4" s="69"/>
-      <c r="K4" s="132"/>
+      <c r="K4" s="136"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="66"/>
@@ -3869,7 +3836,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="69"/>
-      <c r="K5" s="132"/>
+      <c r="K5" s="136"/>
     </row>
     <row r="6" spans="1:11" ht="31.7" customHeight="1" thickBot="1">
       <c r="A6" s="66"/>
@@ -3898,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="J6" s="69"/>
-      <c r="K6" s="132"/>
+      <c r="K6" s="136"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="66"/>
@@ -3921,7 +3888,7 @@
       <c r="H7" s="73"/>
       <c r="I7" s="73"/>
       <c r="J7" s="69"/>
-      <c r="K7" s="132"/>
+      <c r="K7" s="136"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="66"/>
@@ -3944,7 +3911,7 @@
       <c r="H8" s="77"/>
       <c r="I8" s="77"/>
       <c r="J8" s="69"/>
-      <c r="K8" s="132"/>
+      <c r="K8" s="136"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="66"/>
@@ -3967,7 +3934,7 @@
       <c r="H9" s="73"/>
       <c r="I9" s="73"/>
       <c r="J9" s="69"/>
-      <c r="K9" s="132"/>
+      <c r="K9" s="136"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="66"/>
@@ -3990,30 +3957,30 @@
       <c r="H10" s="77"/>
       <c r="I10" s="77"/>
       <c r="J10" s="69"/>
-      <c r="K10" s="132"/>
+      <c r="K10" s="136"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="66"/>
-      <c r="B11" s="142" t="s">
+      <c r="B11" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="143" t="s">
+      <c r="C11" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="142" t="s">
+      <c r="D11" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="144" t="s">
+      <c r="E11" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145" t="s">
+      <c r="F11" s="73"/>
+      <c r="G11" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
       <c r="J11" s="69"/>
-      <c r="K11" s="132"/>
+      <c r="K11" s="136"/>
     </row>
     <row r="12" spans="1:11" ht="13.5" thickBot="1">
       <c r="A12" s="84"/>
@@ -4036,7 +4003,7 @@
       <c r="H12" s="77"/>
       <c r="I12" s="77"/>
       <c r="J12" s="86"/>
-      <c r="K12" s="132"/>
+      <c r="K12" s="136"/>
     </row>
     <row r="13" spans="1:11" ht="13.5" thickBot="1">
       <c r="A13" s="66"/>
@@ -4076,10 +4043,10 @@
     </row>
     <row r="17" spans="2:3" ht="15.75" customHeight="1"/>
     <row r="18" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B18" s="131" t="s">
+      <c r="B18" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="131"/>
+      <c r="C18" s="135"/>
     </row>
     <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="87" t="s">
@@ -4138,8 +4105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4254,7 +4221,7 @@
         <v>58</v>
       </c>
       <c r="H7" s="70" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="I7" s="73"/>
       <c r="J7" s="73"/>
@@ -4398,27 +4365,27 @@
       <c r="J13" s="73"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="147"/>
-      <c r="D14" s="148" t="s">
+      <c r="C14" s="128"/>
+      <c r="D14" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="148" t="s">
+      <c r="E14" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="149" t="s">
+      <c r="F14" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="149" t="s">
+      <c r="G14" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="149" t="s">
+      <c r="H14" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="149"/>
-      <c r="J14" s="149"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="70" t="s">
@@ -4856,7 +4823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
   <dimension ref="B2:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -5069,38 +5036,38 @@
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="135" t="str">
+      <c r="B10" s="111" t="str">
         <f>SEC_Processes!D11</f>
         <v>ELE_EX_WIND_FARM</v>
       </c>
-      <c r="C10" s="135" t="str">
+      <c r="C10" s="111" t="str">
         <f>SEC_Processes!E11</f>
         <v>Wind farm</v>
       </c>
-      <c r="D10" s="136" t="str">
+      <c r="D10" s="112" t="str">
         <f>SEC_Comm!C10</f>
         <v>WIND</v>
       </c>
-      <c r="E10" s="136" t="str">
+      <c r="E10" s="112" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F10" s="137">
+      <c r="F10" s="113">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G10" s="137">
+      <c r="G10" s="113">
         <v>1</v>
       </c>
-      <c r="H10" s="138">
+      <c r="H10" s="114">
         <v>31.536000000000001</v>
       </c>
-      <c r="I10" s="138">
+      <c r="I10" s="114">
         <v>0.2</v>
       </c>
-      <c r="J10" s="139">
+      <c r="J10" s="115">
         <v>1</v>
       </c>
-      <c r="K10" s="138">
+      <c r="K10" s="114">
         <v>0</v>
       </c>
     </row>
@@ -5141,38 +5108,38 @@
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="135" t="str">
+      <c r="B12" s="111" t="str">
         <f>SEC_Processes!D16</f>
         <v>ELE_EX_PV</v>
       </c>
-      <c r="C12" s="135" t="str">
+      <c r="C12" s="111" t="str">
         <f>SEC_Processes!E16</f>
         <v>Photovoltaic</v>
       </c>
-      <c r="D12" s="136" t="str">
+      <c r="D12" s="112" t="str">
         <f>SEC_Comm!C12</f>
         <v>PV</v>
       </c>
-      <c r="E12" s="136" t="str">
+      <c r="E12" s="112" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F12" s="137">
+      <c r="F12" s="113">
         <v>0.05</v>
       </c>
-      <c r="G12" s="137">
+      <c r="G12" s="113">
         <v>1</v>
       </c>
-      <c r="H12" s="138">
+      <c r="H12" s="114">
         <v>31.536000000000001</v>
       </c>
-      <c r="I12" s="138">
+      <c r="I12" s="114">
         <v>0.25</v>
       </c>
-      <c r="J12" s="139">
+      <c r="J12" s="115">
         <v>1</v>
       </c>
-      <c r="K12" s="138">
+      <c r="K12" s="114">
         <v>0</v>
       </c>
     </row>
@@ -5186,7 +5153,7 @@
       <c r="H13" s="119"/>
       <c r="I13" s="119"/>
       <c r="J13" s="120"/>
-      <c r="K13" s="150"/>
+      <c r="K13" s="134"/>
     </row>
     <row r="15" spans="2:12">
       <c r="E15" s="121"/>
@@ -5236,7 +5203,7 @@
       <c r="C22" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="D22" s="140">
+      <c r="D22" s="131">
         <f>MIN_IMP!E8</f>
         <v>100</v>
       </c>
@@ -5257,7 +5224,7 @@
       </c>
     </row>
     <row r="25" spans="3:10">
-      <c r="D25" s="141">
+      <c r="D25" s="132">
         <f>SUM(D23:D24)</f>
         <v>334.33333333333337</v>
       </c>
@@ -5441,11 +5408,11 @@
       <c r="B17" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="133" t="s">
+      <c r="C17" s="137" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="111" t="str">
@@ -5542,11 +5509,11 @@
       <c r="C6" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="134" t="s">
+      <c r="D6" s="138" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="39"/>
@@ -5592,6 +5559,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="56d16bfd38a93d3246b87ec2f908dfef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7776de10091f04de0bec4c5ba2ee03" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -5735,22 +5717,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41AB35AE-AE16-422C-95C7-3A91F3841299}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5766,21 +5750,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Wyrwa\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EB6F16-6F68-49FA-AEE7-9E79D217608A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6578B301-0E68-45BD-9B40-48BF2417BEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="165">
   <si>
     <t>Define commodities</t>
   </si>
@@ -1278,22 +1278,78 @@
   </si>
   <si>
     <t>WEEKLY</t>
+  </si>
+  <si>
+    <t>1S1W1D</t>
+  </si>
+  <si>
+    <t>1S1W2D</t>
+  </si>
+  <si>
+    <t>1S2W1D</t>
+  </si>
+  <si>
+    <t>1S2W2D</t>
+  </si>
+  <si>
+    <t>2S1W1D</t>
+  </si>
+  <si>
+    <t>2S1W2D</t>
+  </si>
+  <si>
+    <t>2S2W1D</t>
+  </si>
+  <si>
+    <t>2S2W2D</t>
+  </si>
+  <si>
+    <t>TimeSlice</t>
+  </si>
+  <si>
+    <t>COM_FR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="22">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="173" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="174" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="175" formatCode="_-* #,##0.00\ _D_M_-;\-* #,##0.00\ _D_M_-;_-* &quot;-&quot;??\ _D_M_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;DM&quot;;[Red]\-#,##0.00\ &quot;DM&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00\ &quot;Pts&quot;;[Red]\-#,##0.00\ &quot;Pts&quot;"/>
+    <numFmt numFmtId="180" formatCode="#,##0."/>
+    <numFmt numFmtId="181" formatCode="&quot;$&quot;#."/>
+    <numFmt numFmtId="182" formatCode="m/d/yy\ h:mm"/>
+    <numFmt numFmtId="183" formatCode="#.00"/>
+    <numFmt numFmtId="184" formatCode="mmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="185" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="186" formatCode="yyyy"/>
+    <numFmt numFmtId="187" formatCode="_-* ###0.00_-;\(###0.00\);_-* &quot;–&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="60">
+  <fonts count="94">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1677,8 +1733,208 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial CE"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="1"/>
+      <color indexed="8"/>
+      <name val="Courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="BERNHARD"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color indexed="37"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="1"/>
+      <color indexed="8"/>
+      <name val="Courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Small Fonts"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="39"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="39"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="19"/>
+      <color indexed="48"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="51">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1873,8 +2129,88 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor indexed="48"/>
+        <bgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="54"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -2169,113 +2505,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="48"/>
+      </left>
+      <right style="thin">
+        <color indexed="48"/>
+      </right>
+      <top style="thin">
+        <color indexed="48"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="48"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="41"/>
+      </left>
+      <right style="thin">
+        <color indexed="48"/>
+      </right>
+      <top style="medium">
+        <color indexed="41"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="48"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="39"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="39"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="39"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="340">
+  <cellStyleXfs count="767">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2292,199 +2686,238 @@
     <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2492,187 +2925,888 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="6" fillId="37" borderId="28">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="69" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="69" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="181" fontId="69" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="69" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="38" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="7" fillId="39" borderId="30" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="66" fillId="0" borderId="0" applyBorder="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="66" fillId="0" borderId="31">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="68" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="37" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="78" fillId="22" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="79" fillId="29" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="78" fillId="29" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="29" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="78" fillId="41" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="3" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="9" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="17" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="11" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="15" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="19" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="18" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="42" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="10" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="78" fillId="43" borderId="33" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="44" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="81" fillId="45" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="46" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="44" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="41" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="45" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="45" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="47" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="47" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="39" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="82" fillId="39" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="39" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="39" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="44" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="82" fillId="44" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="80" fillId="46" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="41" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="83" fillId="48" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="84" fillId="44" borderId="32" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="66" fillId="40" borderId="30"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="49" borderId="34" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="49" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="37" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="3" fontId="86" fillId="0" borderId="29" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="68" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="187" fontId="87" fillId="0" borderId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="66" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="277"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="277" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="277" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="277"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="277" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="277" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="277" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="277" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="277" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="277" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="14" xfId="277" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="14" xfId="277" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="277" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="277" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="277" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="277" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="277" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="277" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="277" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="277" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="277" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="277" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="10" xfId="277" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="28" borderId="10" xfId="277" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="25" borderId="13" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="25" borderId="13" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="25" borderId="12" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="25" borderId="12" xfId="274" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="54" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="339" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="338" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="10" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="10" xfId="338" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="56" fillId="30" borderId="0" xfId="280" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="57" fillId="30" borderId="0" xfId="280" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="56" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="57" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="56" fillId="31" borderId="0" xfId="280" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="57" fillId="31" borderId="0" xfId="280" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="56" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="57" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="56" fillId="30" borderId="12" xfId="280" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="30" borderId="12" xfId="280" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="56" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="57" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="16" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="28" borderId="16" xfId="338" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="16" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="28" borderId="16" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="16" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="28" borderId="16" xfId="338" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="17" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="17" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="18" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="28" borderId="18" xfId="338" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="18" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="28" borderId="18" xfId="338" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="27" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="27" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="12" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="12" xfId="274" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2681,7 +3815,7 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2690,34 +3824,34 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="26" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="27" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -2729,10 +3863,10 @@
     <xf numFmtId="165" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2750,94 +3884,94 @@
     <xf numFmtId="0" fontId="0" fillId="36" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="27" borderId="12" xfId="278" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="338" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="338" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="338" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="278" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="24" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="339" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="339" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2855,7 +3989,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2873,13 +4007,13 @@
     <xf numFmtId="1" fontId="0" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="27" borderId="0" xfId="278" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="27" borderId="0" xfId="278" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2894,21 +4028,61 @@
     <xf numFmtId="1" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="340">
+  <cellStyles count="767">
+    <cellStyle name="20 % - Akzent1 2" xfId="339" xr:uid="{78745468-9F52-4719-A58D-77B5260D53C8}"/>
+    <cellStyle name="20 % - Akzent2 2" xfId="340" xr:uid="{C0221334-D0F0-4791-9D1F-FF2086FB32A2}"/>
+    <cellStyle name="20 % - Akzent3 2" xfId="341" xr:uid="{3F16401C-D987-4F08-848D-723E53AD5A76}"/>
+    <cellStyle name="20 % - Akzent4 2" xfId="342" xr:uid="{9E735A7F-11DB-45FD-A45F-15369A7CBDE5}"/>
+    <cellStyle name="20 % - Akzent5 2" xfId="343" xr:uid="{8D0B73FA-D66A-4478-9302-A27BB64D984A}"/>
+    <cellStyle name="20 % - Akzent6 2" xfId="344" xr:uid="{E06BB858-1AFA-4058-B4E0-6FCB4648F629}"/>
+    <cellStyle name="20% - Accent1" xfId="345" xr:uid="{7E409D85-C2E3-4B04-BA65-9934CD6FDE11}"/>
+    <cellStyle name="20% - Accent2" xfId="346" xr:uid="{BD65F68D-BA5A-4E29-B667-C29DC093F216}"/>
+    <cellStyle name="20% - Accent3" xfId="347" xr:uid="{B40D8985-82B6-459F-B18E-D00559AE0DE6}"/>
+    <cellStyle name="20% - Accent4" xfId="348" xr:uid="{19698FBD-75B0-4A4D-9520-70551F08D324}"/>
+    <cellStyle name="20% - Accent5" xfId="349" xr:uid="{519361FA-2148-4454-B06C-A8BC5C6451CD}"/>
+    <cellStyle name="20% - Accent6" xfId="350" xr:uid="{1198EDE3-7AC7-4F9E-9A91-266764E0EB25}"/>
     <cellStyle name="20% - akcent 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - akcent 1 10" xfId="351" xr:uid="{A19F41E1-7A3C-47C9-BE58-D24B9C515AF8}"/>
     <cellStyle name="20% - akcent 1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20% - akcent 1 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="20% - akcent 1 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -2916,7 +4090,9 @@
     <cellStyle name="20% - akcent 1 6" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="20% - akcent 1 7" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="20% - akcent 1 8" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - akcent 1 9" xfId="352" xr:uid="{E80578FC-03E1-4CB0-8600-83C9BBED9681}"/>
     <cellStyle name="20% - akcent 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - akcent 2 10" xfId="353" xr:uid="{2F6D1C51-8FAE-4DBF-B69C-61DB62051C5A}"/>
     <cellStyle name="20% - akcent 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="20% - akcent 2 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="20% - akcent 2 4" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
@@ -2924,7 +4100,9 @@
     <cellStyle name="20% - akcent 2 6" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="20% - akcent 2 7" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
     <cellStyle name="20% - akcent 2 8" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="20% - akcent 2 9" xfId="354" xr:uid="{2A34808F-BC7A-4E3B-9FB4-8097A436A6BE}"/>
     <cellStyle name="20% - akcent 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="20% - akcent 3 10" xfId="355" xr:uid="{880C8EE6-9497-4EC6-BD74-0E6F9327C54F}"/>
     <cellStyle name="20% - akcent 3 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="20% - akcent 3 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="20% - akcent 3 4" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
@@ -2932,7 +4110,9 @@
     <cellStyle name="20% - akcent 3 6" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
     <cellStyle name="20% - akcent 3 7" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
     <cellStyle name="20% - akcent 3 8" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="20% - akcent 3 9" xfId="356" xr:uid="{128BDB7A-CFCF-408F-A1DD-BE08CAF35752}"/>
     <cellStyle name="20% - akcent 4" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="20% - akcent 4 10" xfId="357" xr:uid="{26F9210F-9F7A-4652-9A13-0234B8C5A1EC}"/>
     <cellStyle name="20% - akcent 4 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="20% - akcent 4 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="20% - akcent 4 4" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
@@ -2940,7 +4120,9 @@
     <cellStyle name="20% - akcent 4 6" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="20% - akcent 4 7" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
     <cellStyle name="20% - akcent 4 8" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="20% - akcent 4 9" xfId="358" xr:uid="{C8BADF57-1C54-417C-872C-02226151075E}"/>
     <cellStyle name="20% - akcent 5" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="20% - akcent 5 10" xfId="359" xr:uid="{5DAD7AF3-AEB8-426C-9D4E-1606638F0694}"/>
     <cellStyle name="20% - akcent 5 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
     <cellStyle name="20% - akcent 5 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
     <cellStyle name="20% - akcent 5 4" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
@@ -2948,7 +4130,9 @@
     <cellStyle name="20% - akcent 5 6" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="20% - akcent 5 7" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
     <cellStyle name="20% - akcent 5 8" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="20% - akcent 5 9" xfId="360" xr:uid="{94ADFCBC-B6B8-4C9C-BD31-2D8DDC0E43FF}"/>
     <cellStyle name="20% - akcent 6" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="20% - akcent 6 10" xfId="361" xr:uid="{BE35D27C-F9F2-41B7-B32C-0BC657B3FB94}"/>
     <cellStyle name="20% - akcent 6 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
     <cellStyle name="20% - akcent 6 3" xfId="43" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
     <cellStyle name="20% - akcent 6 4" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
@@ -2956,7 +4140,23 @@
     <cellStyle name="20% - akcent 6 6" xfId="46" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
     <cellStyle name="20% - akcent 6 7" xfId="47" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
     <cellStyle name="20% - akcent 6 8" xfId="48" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="20% - akcent 6 9" xfId="362" xr:uid="{568CCB78-4341-49A7-9C78-6F6C8665D068}"/>
+    <cellStyle name="2x indented GHG Textfiels" xfId="363" xr:uid="{23701313-E7FF-4FED-AB91-120931E348E1}"/>
+    <cellStyle name="2x indented GHG Textfiels 2" xfId="364" xr:uid="{1D6589E5-7E18-4A73-8BE3-9451174A86D4}"/>
+    <cellStyle name="40 % - Akzent1 2" xfId="365" xr:uid="{DBFD235F-6987-4FA6-8A51-BD708C8559CC}"/>
+    <cellStyle name="40 % - Akzent2 2" xfId="366" xr:uid="{0ACD0BD4-759A-4168-9028-7B5F3F6D8EC7}"/>
+    <cellStyle name="40 % - Akzent3 2" xfId="367" xr:uid="{E3E7FDB8-9624-47D8-A6FE-8DB5779666F2}"/>
+    <cellStyle name="40 % - Akzent4 2" xfId="368" xr:uid="{D1F17BEC-9DCA-488F-8C7E-375766F2B1D6}"/>
+    <cellStyle name="40 % - Akzent5 2" xfId="369" xr:uid="{F6FA18AF-D5D9-4772-9627-6F1DFF0902E7}"/>
+    <cellStyle name="40 % - Akzent6 2" xfId="370" xr:uid="{C8C05492-F883-47C9-B625-646B4D980868}"/>
+    <cellStyle name="40% - Accent1" xfId="371" xr:uid="{838FAE5C-01B5-42E8-BE1E-A184731164F0}"/>
+    <cellStyle name="40% - Accent2" xfId="372" xr:uid="{4B54A8CC-FD75-4B93-B6B2-599C22875FD9}"/>
+    <cellStyle name="40% - Accent3" xfId="373" xr:uid="{A3DF4AE4-68C3-43C3-A477-401F8ECBCFAC}"/>
+    <cellStyle name="40% - Accent4" xfId="374" xr:uid="{6C7601B3-FEC3-455A-8DF3-4622F67A8CDC}"/>
+    <cellStyle name="40% - Accent5" xfId="375" xr:uid="{57917F44-2672-487B-90A2-F94CDB0EC3F8}"/>
+    <cellStyle name="40% - Accent6" xfId="376" xr:uid="{08007538-8D69-4B74-A484-ED8D8531DD42}"/>
     <cellStyle name="40% - akcent 1" xfId="49" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="40% - akcent 1 10" xfId="377" xr:uid="{2694C058-85D3-4618-85AE-097E97F2A2D2}"/>
     <cellStyle name="40% - akcent 1 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="40% - akcent 1 3" xfId="51" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="40% - akcent 1 4" xfId="52" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
@@ -2964,7 +4164,9 @@
     <cellStyle name="40% - akcent 1 6" xfId="54" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
     <cellStyle name="40% - akcent 1 7" xfId="55" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
     <cellStyle name="40% - akcent 1 8" xfId="56" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="40% - akcent 1 9" xfId="378" xr:uid="{AAD642A1-EFB3-4386-AD4B-DA10A66F2B05}"/>
     <cellStyle name="40% - akcent 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="40% - akcent 2 10" xfId="379" xr:uid="{836D3D72-0716-42AE-B37C-1421EA9FC06F}"/>
     <cellStyle name="40% - akcent 2 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
     <cellStyle name="40% - akcent 2 3" xfId="59" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
     <cellStyle name="40% - akcent 2 4" xfId="60" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
@@ -2972,7 +4174,9 @@
     <cellStyle name="40% - akcent 2 6" xfId="62" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
     <cellStyle name="40% - akcent 2 7" xfId="63" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
     <cellStyle name="40% - akcent 2 8" xfId="64" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="40% - akcent 2 9" xfId="380" xr:uid="{D97B10C2-B943-4B32-8A8C-0BB9D4C9036D}"/>
     <cellStyle name="40% - akcent 3" xfId="65" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="40% - akcent 3 10" xfId="381" xr:uid="{2B226252-250C-41D4-AAF3-A051971ED055}"/>
     <cellStyle name="40% - akcent 3 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
     <cellStyle name="40% - akcent 3 3" xfId="67" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
     <cellStyle name="40% - akcent 3 4" xfId="68" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
@@ -2980,7 +4184,9 @@
     <cellStyle name="40% - akcent 3 6" xfId="70" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
     <cellStyle name="40% - akcent 3 7" xfId="71" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
     <cellStyle name="40% - akcent 3 8" xfId="72" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="40% - akcent 3 9" xfId="382" xr:uid="{B7504DF2-FCAB-47D1-B024-B2EDF2701D1A}"/>
     <cellStyle name="40% - akcent 4" xfId="73" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="40% - akcent 4 10" xfId="383" xr:uid="{B26B8E73-3584-4BAE-A4BB-018538E34C94}"/>
     <cellStyle name="40% - akcent 4 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
     <cellStyle name="40% - akcent 4 3" xfId="75" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
     <cellStyle name="40% - akcent 4 4" xfId="76" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
@@ -2988,7 +4194,9 @@
     <cellStyle name="40% - akcent 4 6" xfId="78" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
     <cellStyle name="40% - akcent 4 7" xfId="79" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
     <cellStyle name="40% - akcent 4 8" xfId="80" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="40% - akcent 4 9" xfId="384" xr:uid="{68B7FFDD-8C4C-42A9-AAF8-8B196B5BDB0E}"/>
     <cellStyle name="40% - akcent 5" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="40% - akcent 5 10" xfId="385" xr:uid="{97091D30-855D-4AB5-9751-97959297B579}"/>
     <cellStyle name="40% - akcent 5 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
     <cellStyle name="40% - akcent 5 3" xfId="83" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
     <cellStyle name="40% - akcent 5 4" xfId="84" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
@@ -2996,7 +4204,9 @@
     <cellStyle name="40% - akcent 5 6" xfId="86" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
     <cellStyle name="40% - akcent 5 7" xfId="87" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
     <cellStyle name="40% - akcent 5 8" xfId="88" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="40% - akcent 5 9" xfId="386" xr:uid="{6D5B9AE8-7B25-472F-802A-B9CBF615B76C}"/>
     <cellStyle name="40% - akcent 6" xfId="89" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="40% - akcent 6 10" xfId="387" xr:uid="{D21BF8E6-A7A3-407E-9FFB-4F1DAA42E227}"/>
     <cellStyle name="40% - akcent 6 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
     <cellStyle name="40% - akcent 6 3" xfId="91" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
     <cellStyle name="40% - akcent 6 4" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
@@ -3004,7 +4214,23 @@
     <cellStyle name="40% - akcent 6 6" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
     <cellStyle name="40% - akcent 6 7" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
     <cellStyle name="40% - akcent 6 8" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="40% - akcent 6 9" xfId="388" xr:uid="{B4F5BAA1-6D9F-4A0D-A1D0-6D4A27952C64}"/>
+    <cellStyle name="5x indented GHG Textfiels" xfId="389" xr:uid="{B2DB24B0-ACA0-4D9C-9574-BDE42798B859}"/>
+    <cellStyle name="5x indented GHG Textfiels 2" xfId="390" xr:uid="{6EEF4C0C-DAC4-4975-8B90-97C13F6E51F1}"/>
+    <cellStyle name="60 % - Akzent1 2" xfId="391" xr:uid="{3962F511-4C3D-4899-B62A-D2D333926FF3}"/>
+    <cellStyle name="60 % - Akzent2 2" xfId="392" xr:uid="{A018D28F-BB29-4A60-B69A-B4DB63A44287}"/>
+    <cellStyle name="60 % - Akzent3 2" xfId="393" xr:uid="{499AF4B4-6D67-4EEC-A8C0-ED541807754D}"/>
+    <cellStyle name="60 % - Akzent4 2" xfId="394" xr:uid="{A4451ADD-9249-4EF5-B472-0A995ACA314E}"/>
+    <cellStyle name="60 % - Akzent5 2" xfId="395" xr:uid="{89818FC8-4616-4C2C-9E48-05346E74484A}"/>
+    <cellStyle name="60 % - Akzent6 2" xfId="396" xr:uid="{915E16B0-7301-4B27-A74F-F60183660F09}"/>
+    <cellStyle name="60% - Accent1" xfId="397" xr:uid="{43A97B5D-F225-41E5-8E5F-694333DC52E1}"/>
+    <cellStyle name="60% - Accent2" xfId="398" xr:uid="{FF6A7A55-4E5D-4FF7-BF4F-541122F23C53}"/>
+    <cellStyle name="60% - Accent3" xfId="399" xr:uid="{849CDA17-AC6E-451B-9C39-E8C2861C18A5}"/>
+    <cellStyle name="60% - Accent4" xfId="400" xr:uid="{EFEC2584-1269-4FD9-9373-7591CB8E0976}"/>
+    <cellStyle name="60% - Accent5" xfId="401" xr:uid="{43F62350-C41F-48C4-83E9-87DE9E1BD721}"/>
+    <cellStyle name="60% - Accent6" xfId="402" xr:uid="{EFB8BDBF-FACC-435F-B04A-770ACCA8D4A3}"/>
     <cellStyle name="60% - akcent 1" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="60% - akcent 1 10" xfId="403" xr:uid="{7ACD9DC2-CB26-4F9A-BA2F-4D37AFE32B2C}"/>
     <cellStyle name="60% - akcent 1 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
     <cellStyle name="60% - akcent 1 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
     <cellStyle name="60% - akcent 1 4" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
@@ -3012,7 +4238,9 @@
     <cellStyle name="60% - akcent 1 6" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
     <cellStyle name="60% - akcent 1 7" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
     <cellStyle name="60% - akcent 1 8" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="60% - akcent 1 9" xfId="404" xr:uid="{8C5F70D8-892A-4BCA-8A7C-C221937CBFDC}"/>
     <cellStyle name="60% - akcent 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="60% - akcent 2 10" xfId="405" xr:uid="{79E1E384-92E8-4CDB-B37F-9CA68550A6D8}"/>
     <cellStyle name="60% - akcent 2 2" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
     <cellStyle name="60% - akcent 2 3" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
     <cellStyle name="60% - akcent 2 4" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
@@ -3020,7 +4248,9 @@
     <cellStyle name="60% - akcent 2 6" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
     <cellStyle name="60% - akcent 2 7" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
     <cellStyle name="60% - akcent 2 8" xfId="112" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="60% - akcent 2 9" xfId="406" xr:uid="{51CE99B9-8B19-4227-8E24-86AEB0933199}"/>
     <cellStyle name="60% - akcent 3" xfId="113" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="60% - akcent 3 10" xfId="407" xr:uid="{F1EF09F1-58A7-4A8E-8D94-68843CE84F88}"/>
     <cellStyle name="60% - akcent 3 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
     <cellStyle name="60% - akcent 3 3" xfId="115" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
     <cellStyle name="60% - akcent 3 4" xfId="116" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
@@ -3028,7 +4258,9 @@
     <cellStyle name="60% - akcent 3 6" xfId="118" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
     <cellStyle name="60% - akcent 3 7" xfId="119" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
     <cellStyle name="60% - akcent 3 8" xfId="120" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="60% - akcent 3 9" xfId="408" xr:uid="{F3D764A5-7373-42A0-BC08-FE67A311C477}"/>
     <cellStyle name="60% - akcent 4" xfId="121" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="60% - akcent 4 10" xfId="409" xr:uid="{39DEE5BF-BF43-45D4-B478-C5413C145457}"/>
     <cellStyle name="60% - akcent 4 2" xfId="122" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
     <cellStyle name="60% - akcent 4 3" xfId="123" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
     <cellStyle name="60% - akcent 4 4" xfId="124" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
@@ -3036,7 +4268,9 @@
     <cellStyle name="60% - akcent 4 6" xfId="126" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
     <cellStyle name="60% - akcent 4 7" xfId="127" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
     <cellStyle name="60% - akcent 4 8" xfId="128" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="60% - akcent 4 9" xfId="410" xr:uid="{C023BB5A-54D4-418B-9933-DE9E032491A5}"/>
     <cellStyle name="60% - akcent 5" xfId="129" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="60% - akcent 5 10" xfId="411" xr:uid="{2E325860-6C8E-403C-9676-FC2DF4BEB488}"/>
     <cellStyle name="60% - akcent 5 2" xfId="130" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
     <cellStyle name="60% - akcent 5 3" xfId="131" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
     <cellStyle name="60% - akcent 5 4" xfId="132" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
@@ -3044,7 +4278,9 @@
     <cellStyle name="60% - akcent 5 6" xfId="134" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
     <cellStyle name="60% - akcent 5 7" xfId="135" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
     <cellStyle name="60% - akcent 5 8" xfId="136" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="60% - akcent 5 9" xfId="412" xr:uid="{6F394DD5-84B0-41BE-85DA-9CD12C4C4BD1}"/>
     <cellStyle name="60% - akcent 6" xfId="137" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="60% - akcent 6 10" xfId="413" xr:uid="{126579B9-6C49-4640-A5BC-494F791C73EA}"/>
     <cellStyle name="60% - akcent 6 2" xfId="138" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
     <cellStyle name="60% - akcent 6 3" xfId="139" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
     <cellStyle name="60% - akcent 6 4" xfId="140" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
@@ -3052,7 +4288,16 @@
     <cellStyle name="60% - akcent 6 6" xfId="142" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
     <cellStyle name="60% - akcent 6 7" xfId="143" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
     <cellStyle name="60% - akcent 6 8" xfId="144" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="60% - akcent 6 9" xfId="414" xr:uid="{3B82FFC0-5866-43FB-A615-F686C2492E47}"/>
+    <cellStyle name="Accent1" xfId="415" xr:uid="{75361E9E-9DD8-402E-BBCD-102BEDBD1CF3}"/>
+    <cellStyle name="Accent2" xfId="416" xr:uid="{445B09B6-B26B-4982-B8F9-07AF6D48C1F7}"/>
+    <cellStyle name="Accent3" xfId="417" xr:uid="{CDAB97FA-F0BC-4E47-A1D9-6188F174B858}"/>
+    <cellStyle name="Accent4" xfId="418" xr:uid="{5734F1EC-0D4C-4FA7-83BB-199886CA9454}"/>
+    <cellStyle name="Accent5" xfId="419" xr:uid="{0C9FEAA4-0C97-46A4-81B3-3A881906268B}"/>
+    <cellStyle name="Accent6" xfId="420" xr:uid="{89C50113-B0F0-47A6-BD95-D215E39F5595}"/>
+    <cellStyle name="Actual Date" xfId="421" xr:uid="{0682ADB9-9E46-4B6E-ABB0-DFD195977373}"/>
     <cellStyle name="Akcent 1" xfId="145" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Akcent 1 10" xfId="422" xr:uid="{9A1D4522-A652-4CFA-83E7-7F7F42B023FC}"/>
     <cellStyle name="Akcent 1 2" xfId="146" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
     <cellStyle name="Akcent 1 3" xfId="147" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
     <cellStyle name="Akcent 1 4" xfId="148" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
@@ -3060,7 +4305,9 @@
     <cellStyle name="Akcent 1 6" xfId="150" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
     <cellStyle name="Akcent 1 7" xfId="151" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
     <cellStyle name="Akcent 1 8" xfId="152" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Akcent 1 9" xfId="423" xr:uid="{6A80586F-3C81-4F31-A94D-EEA95951BD4F}"/>
     <cellStyle name="Akcent 2" xfId="153" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Akcent 2 10" xfId="424" xr:uid="{80FDA362-657E-4F21-B692-7EFE25E14A06}"/>
     <cellStyle name="Akcent 2 2" xfId="154" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
     <cellStyle name="Akcent 2 3" xfId="155" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
     <cellStyle name="Akcent 2 4" xfId="156" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
@@ -3068,7 +4315,9 @@
     <cellStyle name="Akcent 2 6" xfId="158" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
     <cellStyle name="Akcent 2 7" xfId="159" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
     <cellStyle name="Akcent 2 8" xfId="160" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Akcent 2 9" xfId="425" xr:uid="{DAB12DBF-2362-42D8-898A-BF6587F21E39}"/>
     <cellStyle name="Akcent 3" xfId="161" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Akcent 3 10" xfId="426" xr:uid="{F2ED17F9-8F34-4772-9B2F-0DB93C827D0D}"/>
     <cellStyle name="Akcent 3 2" xfId="162" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
     <cellStyle name="Akcent 3 3" xfId="163" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
     <cellStyle name="Akcent 3 4" xfId="164" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
@@ -3076,7 +4325,9 @@
     <cellStyle name="Akcent 3 6" xfId="166" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
     <cellStyle name="Akcent 3 7" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
     <cellStyle name="Akcent 3 8" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="Akcent 3 9" xfId="427" xr:uid="{B82B8EAE-9DB7-4AC5-8331-59D3F5AA8B54}"/>
     <cellStyle name="Akcent 4" xfId="169" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="Akcent 4 10" xfId="428" xr:uid="{0DC3B2AF-CC80-4E93-96A9-03974BB11FB6}"/>
     <cellStyle name="Akcent 4 2" xfId="170" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
     <cellStyle name="Akcent 4 3" xfId="171" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
     <cellStyle name="Akcent 4 4" xfId="172" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
@@ -3084,7 +4335,9 @@
     <cellStyle name="Akcent 4 6" xfId="174" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
     <cellStyle name="Akcent 4 7" xfId="175" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
     <cellStyle name="Akcent 4 8" xfId="176" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="Akcent 4 9" xfId="429" xr:uid="{37169528-EE0F-4692-A6B1-B359A00F5955}"/>
     <cellStyle name="Akcent 5" xfId="177" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="Akcent 5 10" xfId="430" xr:uid="{D203BA97-DFEA-4330-983A-83098C054CFF}"/>
     <cellStyle name="Akcent 5 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
     <cellStyle name="Akcent 5 3" xfId="179" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
     <cellStyle name="Akcent 5 4" xfId="180" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
@@ -3092,7 +4345,9 @@
     <cellStyle name="Akcent 5 6" xfId="182" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
     <cellStyle name="Akcent 5 7" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
     <cellStyle name="Akcent 5 8" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="Akcent 5 9" xfId="431" xr:uid="{8BC39EC8-D7F8-4146-98FE-F0C808CE24D0}"/>
     <cellStyle name="Akcent 6" xfId="185" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="Akcent 6 10" xfId="432" xr:uid="{81C3BCB1-66FA-4961-A36C-997080B471F7}"/>
     <cellStyle name="Akcent 6 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
     <cellStyle name="Akcent 6 3" xfId="187" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
     <cellStyle name="Akcent 6 4" xfId="188" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
@@ -3100,7 +4355,26 @@
     <cellStyle name="Akcent 6 6" xfId="190" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
     <cellStyle name="Akcent 6 7" xfId="191" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
     <cellStyle name="Akcent 6 8" xfId="192" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="Akcent 6 9" xfId="433" xr:uid="{948FE370-CCC2-4457-A72E-356807E21ACB}"/>
+    <cellStyle name="Akzent1 2" xfId="434" xr:uid="{9023DE92-EFF4-4400-A24A-703F22F5A676}"/>
+    <cellStyle name="Akzent2 2" xfId="435" xr:uid="{E41B28E8-5F2F-4A11-AC2B-D082F804DF57}"/>
+    <cellStyle name="Akzent3 2" xfId="436" xr:uid="{644F41E7-9895-49A2-93C6-573F511E823C}"/>
+    <cellStyle name="Akzent4 2" xfId="437" xr:uid="{18BD2645-3DC3-4A18-BC2B-CB571C3CCFDD}"/>
+    <cellStyle name="Akzent5 2" xfId="438" xr:uid="{27929602-D382-4861-B820-345AB10FE26D}"/>
+    <cellStyle name="Akzent6 2" xfId="439" xr:uid="{F5DD6AD3-C870-425D-A8E6-2FF4D0287CAE}"/>
+    <cellStyle name="Ausgabe 2" xfId="440" xr:uid="{1E2EAD23-48FD-470C-9AE4-79D83C10D69C}"/>
+    <cellStyle name="Bad" xfId="441" xr:uid="{B1448558-F6D0-4FC7-9560-E7CB69C1AA29}"/>
+    <cellStyle name="Berechnung 2" xfId="442" xr:uid="{FDD88737-CF99-4B19-8C3F-8936FDCB3501}"/>
+    <cellStyle name="Calculation" xfId="443" xr:uid="{96CB2FC1-A447-4366-9F9E-D9394626DFA2}"/>
+    <cellStyle name="Check Cell" xfId="444" xr:uid="{0A3B2939-D162-45AA-BEAE-ABFC66A14BBD}"/>
+    <cellStyle name="ColLevel_" xfId="445" xr:uid="{57500A7B-E13C-4AB7-9723-3A4482F6D419}"/>
+    <cellStyle name="Comma0" xfId="446" xr:uid="{F8F3C860-1078-43CD-B978-522E502D111E}"/>
+    <cellStyle name="Comma0 - Style1" xfId="447" xr:uid="{16E95A14-29FF-4877-AAFA-E68553425BFB}"/>
+    <cellStyle name="Comma0 - Style2" xfId="448" xr:uid="{50100E8E-B5EE-4D25-A80F-39E368D91868}"/>
+    <cellStyle name="Comma0_Input" xfId="449" xr:uid="{4384EF47-D6A4-4C0E-8F93-C98787AC712E}"/>
+    <cellStyle name="Currency0" xfId="450" xr:uid="{721F8E91-2819-4E5D-9DD0-9579092D39EF}"/>
     <cellStyle name="Dane wejściowe" xfId="193" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="Dane wejściowe 10" xfId="451" xr:uid="{D30758C5-F7AB-474A-80C8-AD0B13CC43F9}"/>
     <cellStyle name="Dane wejściowe 2" xfId="194" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
     <cellStyle name="Dane wejściowe 3" xfId="195" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
     <cellStyle name="Dane wejściowe 4" xfId="196" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
@@ -3108,7 +4382,9 @@
     <cellStyle name="Dane wejściowe 6" xfId="198" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
     <cellStyle name="Dane wejściowe 7" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
     <cellStyle name="Dane wejściowe 8" xfId="200" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="Dane wejściowe 9" xfId="452" xr:uid="{D4708BBB-ADE6-4F6D-959C-3222A72F040A}"/>
     <cellStyle name="Dane wyjściowe" xfId="201" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="Dane wyjściowe 10" xfId="453" xr:uid="{91AEFB19-EFB8-40C5-8AF7-652086B0FEBA}"/>
     <cellStyle name="Dane wyjściowe 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
     <cellStyle name="Dane wyjściowe 3" xfId="203" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
     <cellStyle name="Dane wyjściowe 4" xfId="204" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
@@ -3116,7 +4392,15 @@
     <cellStyle name="Dane wyjściowe 6" xfId="206" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
     <cellStyle name="Dane wyjściowe 7" xfId="207" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
     <cellStyle name="Dane wyjściowe 8" xfId="208" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="Dane wyjściowe 9" xfId="454" xr:uid="{3980379F-54A4-485B-938D-08EF9ADD5710}"/>
+    <cellStyle name="Date" xfId="455" xr:uid="{7B9B1C00-3912-4EB8-947F-619D3527F798}"/>
+    <cellStyle name="DateTime" xfId="456" xr:uid="{4A2485CD-4155-4B14-97AD-6B5CB0B8688C}"/>
+    <cellStyle name="Dezimal [0] 2" xfId="457" xr:uid="{FD864EC6-486E-4E49-A277-E22468069580}"/>
+    <cellStyle name="Dezimal 2" xfId="458" xr:uid="{32C572AC-0435-48A9-A262-5D4A9DDBECCA}"/>
+    <cellStyle name="Dezimal 3" xfId="459" xr:uid="{CAE02828-A43F-4162-BF65-7F63B1A43E1F}"/>
+    <cellStyle name="Dezimal_Results_Pan_EU_OLGA_NUC" xfId="460" xr:uid="{F798B8E3-A423-4D2F-A584-7C08F1368E89}"/>
     <cellStyle name="Dobre" xfId="209" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="Dobre 10" xfId="461" xr:uid="{B4CFE86A-EAFD-4F73-B46E-463EBAA35FF4}"/>
     <cellStyle name="Dobre 2" xfId="210" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
     <cellStyle name="Dobre 3" xfId="211" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
     <cellStyle name="Dobre 4" xfId="212" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
@@ -3124,8 +4408,83 @@
     <cellStyle name="Dobre 6" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
     <cellStyle name="Dobre 7" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
     <cellStyle name="Dobre 8" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="Dobre 9" xfId="462" xr:uid="{C4D5F852-B179-4BE3-9CC6-8093D5DDA0FB}"/>
+    <cellStyle name="Eingabe 2" xfId="463" xr:uid="{16A5E429-E0BB-4259-AA2B-DDE82E1351E7}"/>
+    <cellStyle name="Ergebnis 2" xfId="464" xr:uid="{4F1C96CA-EFB1-4DA9-9D8A-882DEE4B9A30}"/>
+    <cellStyle name="Erklärender Text 2" xfId="465" xr:uid="{7F7E7CF9-19D1-439E-9311-93FF79B48110}"/>
     <cellStyle name="Euro" xfId="217" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="Euro 2" xfId="466" xr:uid="{01D50D36-A705-4BBE-8EF5-F3751350D5B0}"/>
+    <cellStyle name="Euro 2 2" xfId="467" xr:uid="{716A9CC2-511B-4D76-BBB3-0FF8B73F2457}"/>
+    <cellStyle name="Euro 2 3" xfId="468" xr:uid="{F61A8E6A-A1F3-4446-836C-6213EB031A2B}"/>
+    <cellStyle name="Euro 3" xfId="469" xr:uid="{07670234-5407-40B1-931D-E53A4BE06126}"/>
+    <cellStyle name="Explanatory Text" xfId="470" xr:uid="{E9857FC9-CAB2-49B2-961D-ADF57CD18EC4}"/>
+    <cellStyle name="Fixed" xfId="471" xr:uid="{A047819C-7F95-4961-994E-668256CFAFBA}"/>
+    <cellStyle name="Fixed1 - Style1" xfId="472" xr:uid="{D3093234-4954-43EC-AEB3-34571C9555EC}"/>
+    <cellStyle name="Good" xfId="473" xr:uid="{43460CAF-8AEC-4359-8EB8-A0ED3E61D3ED}"/>
+    <cellStyle name="Grey" xfId="474" xr:uid="{62FD2FFC-1AEB-432A-AE74-28F3EF4A0406}"/>
+    <cellStyle name="Gut 2" xfId="475" xr:uid="{45645E30-78A8-4F9A-9D3E-65838A048A19}"/>
+    <cellStyle name="HEADER" xfId="476" xr:uid="{13750D87-D6B5-4276-9EB1-0F2B2402ECCC}"/>
+    <cellStyle name="Heading 1" xfId="477" xr:uid="{23D832DC-14F8-4485-BBC5-2D29CA7DE9BF}"/>
+    <cellStyle name="Heading 1 10" xfId="478" xr:uid="{F0B07571-B42D-427D-B1A9-3A9788F8374C}"/>
+    <cellStyle name="Heading 1 11" xfId="479" xr:uid="{54E8B617-2AD4-49F7-8687-9445BCD0150E}"/>
+    <cellStyle name="Heading 1 12" xfId="480" xr:uid="{73ECDD8C-BB2A-4F96-98A2-7D0BF6B20097}"/>
+    <cellStyle name="Heading 1 13" xfId="481" xr:uid="{C22DD14C-0B1D-4C3F-85D8-1C8C81E934E3}"/>
+    <cellStyle name="Heading 1 14" xfId="482" xr:uid="{CD4DF652-B51B-4FCE-ADF8-9B86B9E16882}"/>
+    <cellStyle name="Heading 1 15" xfId="483" xr:uid="{6A5CAD88-ECB4-416C-AFD5-BD0FD209B528}"/>
+    <cellStyle name="Heading 1 16" xfId="484" xr:uid="{D46E0AF1-2966-4551-9041-6452F1B54B9E}"/>
+    <cellStyle name="Heading 1 17" xfId="485" xr:uid="{33C51701-1F21-4D4C-810F-C7ABEB03ACD2}"/>
+    <cellStyle name="Heading 1 18" xfId="486" xr:uid="{938777C6-4570-4B75-AACA-5116B636F6FA}"/>
+    <cellStyle name="Heading 1 19" xfId="487" xr:uid="{DC528F30-3B2C-4214-8C1F-8776DBB15F05}"/>
+    <cellStyle name="Heading 1 2" xfId="488" xr:uid="{0CCA7278-8D99-405C-A497-FE85EF74261E}"/>
+    <cellStyle name="Heading 1 3" xfId="489" xr:uid="{7CCC8C82-9410-445C-9E22-3E345F974AC6}"/>
+    <cellStyle name="Heading 1 4" xfId="490" xr:uid="{6241EECD-508B-403D-AE11-7FBF4689AFDC}"/>
+    <cellStyle name="Heading 1 5" xfId="491" xr:uid="{5C618BFE-4A2F-452E-9738-B5663FB02344}"/>
+    <cellStyle name="Heading 1 6" xfId="492" xr:uid="{0EC04CCC-B766-46A2-A0E5-14A314D61B33}"/>
+    <cellStyle name="Heading 1 7" xfId="493" xr:uid="{878B0478-4A20-414C-BA5F-F5263B8B7A0A}"/>
+    <cellStyle name="Heading 1 8" xfId="494" xr:uid="{218DC1CF-89E3-48C6-98B3-F08A84BC65D3}"/>
+    <cellStyle name="Heading 1 9" xfId="495" xr:uid="{CBE3CC00-6E41-4221-A61D-FAEE3B7E21ED}"/>
+    <cellStyle name="Heading 2" xfId="496" xr:uid="{A8170ED3-2F0F-4F36-9C39-B05A41DC180E}"/>
+    <cellStyle name="Heading 2 10" xfId="497" xr:uid="{284D5FF1-EB8E-48AB-9982-FE6A2A5AD10F}"/>
+    <cellStyle name="Heading 2 11" xfId="498" xr:uid="{99889887-89DB-417A-AF11-55238240F63A}"/>
+    <cellStyle name="Heading 2 12" xfId="499" xr:uid="{2397BA20-B9BA-4F04-94DE-6774696E3BAC}"/>
+    <cellStyle name="Heading 2 13" xfId="500" xr:uid="{A8531B8B-EB82-400B-8480-83C6AB412D11}"/>
+    <cellStyle name="Heading 2 14" xfId="501" xr:uid="{3571A4CA-222E-4355-9D85-6BCB98C82561}"/>
+    <cellStyle name="Heading 2 15" xfId="502" xr:uid="{ED46CA65-96A3-45E4-8934-D2205EB1C917}"/>
+    <cellStyle name="Heading 2 16" xfId="503" xr:uid="{B21B224B-8DFA-4D52-8B72-46FA438DCD7D}"/>
+    <cellStyle name="Heading 2 17" xfId="504" xr:uid="{CFA0FAAE-23CA-4630-BB65-B2C96B34C369}"/>
+    <cellStyle name="Heading 2 18" xfId="505" xr:uid="{87B8BC2D-A99F-48CE-9937-9877C9F309CD}"/>
+    <cellStyle name="Heading 2 19" xfId="506" xr:uid="{5C7F44F1-10A2-4A89-9041-687FA1968A46}"/>
+    <cellStyle name="Heading 2 2" xfId="507" xr:uid="{0A24458A-81B4-42F3-A825-D3C820B00A4E}"/>
+    <cellStyle name="Heading 2 3" xfId="508" xr:uid="{9FCAD222-0CC2-4656-BCA1-CF983B54E941}"/>
+    <cellStyle name="Heading 2 4" xfId="509" xr:uid="{AAC7D56E-C576-487B-A5E9-F230BC1CA0AC}"/>
+    <cellStyle name="Heading 2 5" xfId="510" xr:uid="{B5CCD870-CC07-404D-91A0-09F757C4873D}"/>
+    <cellStyle name="Heading 2 6" xfId="511" xr:uid="{8B13999A-3CB4-42C7-A7C6-455ACD2F6C76}"/>
+    <cellStyle name="Heading 2 7" xfId="512" xr:uid="{B32CF005-3E23-4B4E-B175-A4621E659DBA}"/>
+    <cellStyle name="Heading 2 8" xfId="513" xr:uid="{DB7B2906-5F50-4799-9453-36E6E2FA7DA9}"/>
+    <cellStyle name="Heading 2 9" xfId="514" xr:uid="{12FED99E-F677-485D-A0DF-494A389340C8}"/>
+    <cellStyle name="Heading 3" xfId="515" xr:uid="{BD3D5561-AEBC-47A8-AE6F-5BBEAF931475}"/>
+    <cellStyle name="Heading 4" xfId="516" xr:uid="{C54A37C1-4B9D-491B-8D4D-FC136E02CC26}"/>
+    <cellStyle name="Heading1" xfId="517" xr:uid="{5231EAEB-D0F9-4DC9-9A04-FF0A78A71DA7}"/>
+    <cellStyle name="Heading2" xfId="518" xr:uid="{E1E7F785-6210-4FC4-B1C9-4A5C00A236B8}"/>
+    <cellStyle name="Headline" xfId="519" xr:uid="{1E8D8860-8C9D-4FA5-AE55-C6AB4E78F1D5}"/>
+    <cellStyle name="HIGHLIGHT" xfId="520" xr:uid="{305FE762-106F-4563-9F79-50E434D94528}"/>
+    <cellStyle name="Hiperłącze 2" xfId="521" xr:uid="{DEE97EA3-5553-4232-9FE3-8C8D49838B1F}"/>
+    <cellStyle name="Hiperłącze 2 2" xfId="522" xr:uid="{EDF44734-98BB-4282-8757-8F9863EAD03A}"/>
+    <cellStyle name="Hiperłącze 2 3" xfId="523" xr:uid="{C8AF7A83-802D-4350-A9ED-866A179CA85F}"/>
+    <cellStyle name="Hyperlink 2" xfId="524" xr:uid="{604C9A67-1F6E-4010-9381-C1A7C584F6CE}"/>
+    <cellStyle name="Hyperlink 3" xfId="525" xr:uid="{AD089338-F91E-4EC1-B13F-5F5BC183F8E7}"/>
+    <cellStyle name="Hyperlink 3 2" xfId="526" xr:uid="{5A643C91-9361-4487-9746-9174AF2D056E}"/>
+    <cellStyle name="Hyperlink 3 3" xfId="527" xr:uid="{A99DEF0B-056F-44BF-85F5-0C49FEB221DC}"/>
+    <cellStyle name="Hyperlink 4" xfId="528" xr:uid="{46E95607-6B45-41C5-87D4-4E7CA37472CE}"/>
+    <cellStyle name="Input" xfId="529" xr:uid="{F2A713C2-D4C7-47B3-BADA-9FE05D7C42E1}"/>
+    <cellStyle name="Input [yellow]" xfId="530" xr:uid="{1851431A-BA7F-410C-A769-E2F1C092B969}"/>
+    <cellStyle name="InputCells" xfId="531" xr:uid="{A3971ECC-B68C-4786-ABBA-D09D273A7931}"/>
+    <cellStyle name="InputCells12_BBorder_CRFReport-template" xfId="532" xr:uid="{50CE6417-7F38-4496-BBD6-EEBAC00DF328}"/>
+    <cellStyle name="Komma 2" xfId="533" xr:uid="{D7BFE0BC-83FA-4865-B7BD-C5BEDE7AA695}"/>
+    <cellStyle name="Komma 3" xfId="534" xr:uid="{04D0C955-19BA-4A31-9A76-96A9A0C89CD3}"/>
+    <cellStyle name="Komma 4" xfId="535" xr:uid="{39CA2DA3-23CA-42BB-9C7A-F749AD8C9703}"/>
     <cellStyle name="Komórka połączona" xfId="218" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="Komórka połączona 10" xfId="536" xr:uid="{CC9A59F2-6B51-49B8-A0C0-9C9DD580BFB8}"/>
     <cellStyle name="Komórka połączona 2" xfId="219" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
     <cellStyle name="Komórka połączona 3" xfId="220" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
     <cellStyle name="Komórka połączona 4" xfId="221" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
@@ -3133,7 +4492,9 @@
     <cellStyle name="Komórka połączona 6" xfId="223" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
     <cellStyle name="Komórka połączona 7" xfId="224" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
     <cellStyle name="Komórka połączona 8" xfId="225" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="Komórka połączona 9" xfId="537" xr:uid="{0A2E3A70-C0A2-4726-BC81-9D5B2174CAF1}"/>
     <cellStyle name="Komórka zaznaczona" xfId="226" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="Komórka zaznaczona 10" xfId="538" xr:uid="{4700BCFD-BA02-40F0-A034-35C2E33729F2}"/>
     <cellStyle name="Komórka zaznaczona 2" xfId="227" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
     <cellStyle name="Komórka zaznaczona 3" xfId="228" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
     <cellStyle name="Komórka zaznaczona 4" xfId="229" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
@@ -3141,7 +4502,10 @@
     <cellStyle name="Komórka zaznaczona 6" xfId="231" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
     <cellStyle name="Komórka zaznaczona 7" xfId="232" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
     <cellStyle name="Komórka zaznaczona 8" xfId="233" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="Komórka zaznaczona 9" xfId="539" xr:uid="{1779ED92-D44B-4BE8-AA31-0AEF19E03AEF}"/>
+    <cellStyle name="Linked Cell" xfId="540" xr:uid="{42FB5D5C-A89D-462E-A636-2BE7E94A8ED2}"/>
     <cellStyle name="Nagłówek 1" xfId="234" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="Nagłówek 1 10" xfId="541" xr:uid="{C3019AB5-F926-4B8A-8704-45AB190D550A}"/>
     <cellStyle name="Nagłówek 1 2" xfId="235" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
     <cellStyle name="Nagłówek 1 3" xfId="236" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
     <cellStyle name="Nagłówek 1 4" xfId="237" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
@@ -3149,7 +4513,9 @@
     <cellStyle name="Nagłówek 1 6" xfId="239" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
     <cellStyle name="Nagłówek 1 7" xfId="240" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
     <cellStyle name="Nagłówek 1 8" xfId="241" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="Nagłówek 1 9" xfId="542" xr:uid="{2D59D6FE-F59D-4E04-A73B-8A0CF34EB1E6}"/>
     <cellStyle name="Nagłówek 2" xfId="242" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="Nagłówek 2 10" xfId="543" xr:uid="{1869FF5D-5889-448A-A062-4560C37C4D1D}"/>
     <cellStyle name="Nagłówek 2 2" xfId="243" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
     <cellStyle name="Nagłówek 2 3" xfId="244" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
     <cellStyle name="Nagłówek 2 4" xfId="245" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
@@ -3157,7 +4523,9 @@
     <cellStyle name="Nagłówek 2 6" xfId="247" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
     <cellStyle name="Nagłówek 2 7" xfId="248" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
     <cellStyle name="Nagłówek 2 8" xfId="249" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="Nagłówek 2 9" xfId="544" xr:uid="{56084F95-F6A6-45C3-B471-8225310ED944}"/>
     <cellStyle name="Nagłówek 3" xfId="250" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="Nagłówek 3 10" xfId="545" xr:uid="{0FC06EBA-078B-4AAF-B64A-7BDB3D42A3C1}"/>
     <cellStyle name="Nagłówek 3 2" xfId="251" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
     <cellStyle name="Nagłówek 3 3" xfId="252" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
     <cellStyle name="Nagłówek 3 4" xfId="253" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
@@ -3165,7 +4533,9 @@
     <cellStyle name="Nagłówek 3 6" xfId="255" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
     <cellStyle name="Nagłówek 3 7" xfId="256" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
     <cellStyle name="Nagłówek 3 8" xfId="257" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="Nagłówek 3 9" xfId="546" xr:uid="{3C77B731-D71F-4A14-B801-A463F04E90E2}"/>
     <cellStyle name="Nagłówek 4" xfId="258" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="Nagłówek 4 10" xfId="547" xr:uid="{BD2AF3DF-3730-43A5-B4DB-4A240AAECC9D}"/>
     <cellStyle name="Nagłówek 4 2" xfId="259" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
     <cellStyle name="Nagłówek 4 3" xfId="260" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
     <cellStyle name="Nagłówek 4 4" xfId="261" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
@@ -3173,7 +4543,11 @@
     <cellStyle name="Nagłówek 4 6" xfId="263" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
     <cellStyle name="Nagłówek 4 7" xfId="264" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
     <cellStyle name="Nagłówek 4 8" xfId="265" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="Nagłówek 4 9" xfId="548" xr:uid="{4C65F12C-372F-49A6-9E5A-7D01FD655D9F}"/>
+    <cellStyle name="Neutral" xfId="549" xr:uid="{5AB181BE-6AD6-44D4-8FE4-95FA9680DAE5}"/>
+    <cellStyle name="Neutral 2" xfId="550" xr:uid="{01EF9455-6FC6-484C-B453-AC411A36F31C}"/>
     <cellStyle name="Neutralne" xfId="266" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="Neutralne 10" xfId="551" xr:uid="{C548A8E3-11AA-4609-A8A0-6013D39EB440}"/>
     <cellStyle name="Neutralne 2" xfId="267" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
     <cellStyle name="Neutralne 3" xfId="268" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
     <cellStyle name="Neutralne 4" xfId="269" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
@@ -3181,15 +4555,46 @@
     <cellStyle name="Neutralne 6" xfId="271" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
     <cellStyle name="Neutralne 7" xfId="272" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
     <cellStyle name="Neutralne 8" xfId="273" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="Neutralne 9" xfId="552" xr:uid="{578508BE-2587-40DD-8BA6-51D80B9E7205}"/>
+    <cellStyle name="no dec" xfId="553" xr:uid="{E100645C-8A31-4E59-979E-24AF242E51D3}"/>
+    <cellStyle name="Normal - Style1" xfId="554" xr:uid="{D15455BC-BCE6-4C56-81DF-F14DCCF5DE63}"/>
     <cellStyle name="Normal 10" xfId="274" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="Normal 14" xfId="555" xr:uid="{0C9E26E2-0412-43E1-884C-A450DB6A0883}"/>
     <cellStyle name="Normal 2" xfId="275" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="Normal 20" xfId="556" xr:uid="{7ACF2469-3910-4EFB-B994-9F7BE3162167}"/>
+    <cellStyle name="Normal 21" xfId="557" xr:uid="{01D167EC-72C0-456C-88B1-7967425874A0}"/>
     <cellStyle name="Normal 3" xfId="276" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
-    <cellStyle name="Normal 4" xfId="339" xr:uid="{87DF59A0-13B6-483D-9CBE-BCCD9D8FCC03}"/>
+    <cellStyle name="Normal 3 2" xfId="558" xr:uid="{452EFBC7-0DED-46A7-B78A-8208496D5BA7}"/>
+    <cellStyle name="Normal 3 3" xfId="559" xr:uid="{6540C8DC-4F7D-4559-9E9E-F9429D6415F6}"/>
+    <cellStyle name="Normal 4" xfId="338" xr:uid="{87DF59A0-13B6-483D-9CBE-BCCD9D8FCC03}"/>
+    <cellStyle name="Normal 4 2" xfId="560" xr:uid="{50EBECEA-AF2B-44EC-BDDF-62D9529EF1E4}"/>
+    <cellStyle name="Normal 5" xfId="561" xr:uid="{9DE56970-02A3-4E5F-9ECA-5AA597520393}"/>
+    <cellStyle name="Normal 5 2" xfId="562" xr:uid="{0780B4F2-F5D1-4C5B-AB49-37682987FD55}"/>
+    <cellStyle name="Normal 6" xfId="563" xr:uid="{02295683-06FC-4D77-A6F8-9EF71BF2DF57}"/>
+    <cellStyle name="Normal 6 2" xfId="564" xr:uid="{C44BFEAE-7F12-42CF-9C0F-127B3315B063}"/>
+    <cellStyle name="Normal 7" xfId="565" xr:uid="{192B9ABB-1BE5-4793-A053-3C84CF0F4323}"/>
+    <cellStyle name="Normal 7 2" xfId="566" xr:uid="{1C5A958B-FA38-414A-B331-3DB7029C9F53}"/>
+    <cellStyle name="Normal GHG Textfiels Bold" xfId="567" xr:uid="{E8EE3715-3EAE-4BCE-8E61-2CA6024F12B1}"/>
+    <cellStyle name="Normal GHG-Shade" xfId="568" xr:uid="{6307C775-D2AA-4609-93A9-612F58A42C0B}"/>
+    <cellStyle name="Normal GHG-Shade 2" xfId="569" xr:uid="{0551F8C7-D0BA-4800-9922-3D650EE653DB}"/>
     <cellStyle name="Normal_MIN" xfId="277" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
     <cellStyle name="Normal_PRC" xfId="278" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
     <cellStyle name="Normale_B2020" xfId="279" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny 10" xfId="570" xr:uid="{01A3B1F2-69C7-4774-9B03-65E807AFB1EE}"/>
+    <cellStyle name="Normalny 10 2" xfId="571" xr:uid="{DED7A716-8BB7-4D3F-882B-466B69DF6B2A}"/>
+    <cellStyle name="Normalny 11" xfId="572" xr:uid="{3BC09F78-27BF-4999-A2C6-27A0DDF12E0A}"/>
+    <cellStyle name="Normalny 11 2" xfId="573" xr:uid="{B16854FC-F522-495D-BB1D-CF30652F4D7F}"/>
+    <cellStyle name="Normalny 11 3" xfId="574" xr:uid="{B8CF4B97-EBB3-4959-B19E-45841080F19C}"/>
+    <cellStyle name="Normalny 12" xfId="575" xr:uid="{6B1ABB38-602C-46C6-B801-7F3284614700}"/>
+    <cellStyle name="Normalny 13" xfId="576" xr:uid="{F9188D86-41A5-4E00-8F37-0AFA01B8A13B}"/>
+    <cellStyle name="Normalny 13 2" xfId="577" xr:uid="{6AA9700E-14E0-4577-A89E-DF0ED68A9B49}"/>
+    <cellStyle name="Normalny 13 3" xfId="578" xr:uid="{61F04710-1085-4954-8165-93E699B746CC}"/>
+    <cellStyle name="Normalny 14" xfId="579" xr:uid="{21733E09-3F75-4AC7-A3AB-79BD2D4C9FF4}"/>
+    <cellStyle name="Normalny 15" xfId="580" xr:uid="{1C457599-A41F-4435-A608-2B433039848F}"/>
     <cellStyle name="Normalny 2" xfId="280" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="Normalny 2 2" xfId="582" xr:uid="{92F7A4A2-94FE-40DF-9152-7FC943B072A4}"/>
+    <cellStyle name="Normalny 2 3" xfId="581" xr:uid="{F38BBB85-6C2A-4B45-84DD-CB18D4F5B1E4}"/>
     <cellStyle name="Normalny 3" xfId="281" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
     <cellStyle name="Normalny 4" xfId="282" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
     <cellStyle name="Normalny 5" xfId="283" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
@@ -3197,7 +4602,10 @@
     <cellStyle name="Normalny 7" xfId="285" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
     <cellStyle name="Normalny 8" xfId="286" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
     <cellStyle name="Normalny 9" xfId="287" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="Note" xfId="583" xr:uid="{D5352803-3AD5-48CE-AC76-92FBB92CB483}"/>
+    <cellStyle name="Notiz 2" xfId="584" xr:uid="{1371378E-114E-4838-8B22-BE96228AF83C}"/>
     <cellStyle name="Obliczenia" xfId="288" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="Obliczenia 10" xfId="585" xr:uid="{33CB330B-D8E6-445C-A84E-0D98C5F7E556}"/>
     <cellStyle name="Obliczenia 2" xfId="289" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
     <cellStyle name="Obliczenia 3" xfId="290" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
     <cellStyle name="Obliczenia 4" xfId="291" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
@@ -3205,49 +4613,229 @@
     <cellStyle name="Obliczenia 6" xfId="293" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
     <cellStyle name="Obliczenia 7" xfId="294" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
     <cellStyle name="Obliczenia 8" xfId="295" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="296" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
-    <cellStyle name="Suma" xfId="297" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
-    <cellStyle name="Suma 2" xfId="298" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
-    <cellStyle name="Suma 3" xfId="299" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
-    <cellStyle name="Suma 4" xfId="300" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
-    <cellStyle name="Suma 5" xfId="301" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
-    <cellStyle name="Suma 6" xfId="302" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
-    <cellStyle name="Suma 7" xfId="303" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
-    <cellStyle name="Suma 8" xfId="304" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
-    <cellStyle name="Tekst objaśnienia" xfId="305" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
-    <cellStyle name="Tekst objaśnienia 2" xfId="306" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
-    <cellStyle name="Tekst objaśnienia 3" xfId="307" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
-    <cellStyle name="Tekst objaśnienia 4" xfId="308" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
-    <cellStyle name="Tekst objaśnienia 5" xfId="309" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
-    <cellStyle name="Tekst objaśnienia 6" xfId="310" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
-    <cellStyle name="Tekst objaśnienia 7" xfId="311" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
-    <cellStyle name="Tekst objaśnienia 8" xfId="312" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
-    <cellStyle name="Tekst ostrzeżenia" xfId="313" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 2" xfId="314" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 3" xfId="315" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 4" xfId="316" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 5" xfId="317" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 6" xfId="318" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 7" xfId="319" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
-    <cellStyle name="Tekst ostrzeżenia 8" xfId="320" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
-    <cellStyle name="Tytuł" xfId="321" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
-    <cellStyle name="Uwaga" xfId="322" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
-    <cellStyle name="Uwaga 2" xfId="323" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
-    <cellStyle name="Uwaga 3" xfId="324" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
-    <cellStyle name="Uwaga 4" xfId="325" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
-    <cellStyle name="Uwaga 5" xfId="326" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
-    <cellStyle name="Uwaga 6" xfId="327" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
-    <cellStyle name="Uwaga 7" xfId="328" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
-    <cellStyle name="Uwaga 8" xfId="329" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
-    <cellStyle name="Złe" xfId="330" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
-    <cellStyle name="Złe 2" xfId="331" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
-    <cellStyle name="Złe 3" xfId="332" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
-    <cellStyle name="Złe 4" xfId="333" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
-    <cellStyle name="Złe 5" xfId="334" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
-    <cellStyle name="Złe 6" xfId="335" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
-    <cellStyle name="Złe 7" xfId="336" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
-    <cellStyle name="Złe 8" xfId="337" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
-    <cellStyle name="已访问的超链接" xfId="338" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="Obliczenia 9" xfId="586" xr:uid="{0330AD81-757E-42C2-97B9-EFD761B309DE}"/>
+    <cellStyle name="Output" xfId="587" xr:uid="{86282E1A-245D-4925-BB04-D8C7F041D7D8}"/>
+    <cellStyle name="Percent [2]" xfId="588" xr:uid="{BC54AE47-6D51-4536-B379-99F0D06E2093}"/>
+    <cellStyle name="Procentowy 2" xfId="589" xr:uid="{B673918D-7F07-426F-A1FE-49E74002DC1E}"/>
+    <cellStyle name="Procentowy 2 2" xfId="590" xr:uid="{0C21718F-7771-4411-A6C9-C6F97A997CA9}"/>
+    <cellStyle name="Procentowy 2 3" xfId="591" xr:uid="{336FEEC0-05E2-476E-8FB9-FA176E18B60A}"/>
+    <cellStyle name="Procentowy 3" xfId="592" xr:uid="{FE01C977-D4C2-421D-B501-6E33AB90A987}"/>
+    <cellStyle name="Prozent 2" xfId="593" xr:uid="{E9949232-FE74-48C7-81FB-4D7694ACF81E}"/>
+    <cellStyle name="Prozent 2 2" xfId="594" xr:uid="{8C34DD18-AB7A-44B4-9134-44AAE3034548}"/>
+    <cellStyle name="Prozent 3" xfId="595" xr:uid="{85782507-06D9-441D-96B8-BB0DDA791296}"/>
+    <cellStyle name="Prozent 4" xfId="596" xr:uid="{9A02B989-C3A1-4C56-A21F-040F078E178A}"/>
+    <cellStyle name="Prozent 5" xfId="597" xr:uid="{14685609-BB7B-4819-9460-2D2E1EE0646E}"/>
+    <cellStyle name="Prozent 5 2" xfId="598" xr:uid="{5C8724F5-2C73-441B-8308-73F92E0B4D6C}"/>
+    <cellStyle name="Prozent 5 3" xfId="599" xr:uid="{05017176-BF7B-45DD-9978-BB1BC37D0019}"/>
+    <cellStyle name="Prozent 5 4" xfId="600" xr:uid="{F23DD141-42EB-4CE6-A0E1-369160BE15AC}"/>
+    <cellStyle name="Prozent 6" xfId="601" xr:uid="{9F331548-94FC-4850-8A74-D819C62289D1}"/>
+    <cellStyle name="Prozent 6 2" xfId="602" xr:uid="{076E4E62-2537-4266-867A-07D6F065B9F5}"/>
+    <cellStyle name="Prozent 6 3" xfId="603" xr:uid="{E63D2D83-359D-4D77-8FA9-254454A45E15}"/>
+    <cellStyle name="Prozent 6 4" xfId="604" xr:uid="{1A1F4326-49F7-40D4-8651-3CA484CBA99A}"/>
+    <cellStyle name="Prozent 7" xfId="605" xr:uid="{496F9D80-BF5C-4C3D-8443-1E768A6BF5D9}"/>
+    <cellStyle name="Prozent 8" xfId="606" xr:uid="{8A7789A1-0EC1-4EF6-B7D6-F47CF8405934}"/>
+    <cellStyle name="Prozent 8 2" xfId="607" xr:uid="{E4B9EE7C-397D-464E-AE91-272A767163F8}"/>
+    <cellStyle name="RangeName" xfId="608" xr:uid="{D91B3A2C-03C9-45E5-AAE7-073F45AEA34A}"/>
+    <cellStyle name="SAPBEXaggData" xfId="609" xr:uid="{8633DC57-841F-4D37-86B9-E1EABAF47654}"/>
+    <cellStyle name="SAPBEXaggDataEmph" xfId="610" xr:uid="{82EDEE27-AA7C-4F8D-80FF-CDA474F5CACB}"/>
+    <cellStyle name="SAPBEXaggItem" xfId="611" xr:uid="{401D05CD-5D61-43DD-9311-118D9AA814AC}"/>
+    <cellStyle name="SAPBEXaggItemX" xfId="612" xr:uid="{838A65C7-6A0B-46B1-92D2-841A7AAE7DA8}"/>
+    <cellStyle name="SAPBEXchaText" xfId="613" xr:uid="{15F3EA89-3691-4583-A4EA-A7DBAA820CF2}"/>
+    <cellStyle name="SAPBEXexcBad7" xfId="614" xr:uid="{091DE330-FC3C-48B6-B3FC-3C6A51B473C2}"/>
+    <cellStyle name="SAPBEXexcBad8" xfId="615" xr:uid="{3FF9FA31-16C9-4776-85FF-5C5176F286E7}"/>
+    <cellStyle name="SAPBEXexcBad9" xfId="616" xr:uid="{BD186FB8-85FC-4CC7-974F-5A6A1C897F0F}"/>
+    <cellStyle name="SAPBEXexcCritical4" xfId="617" xr:uid="{A33E488D-2648-4CA8-993F-B1457FD5F92A}"/>
+    <cellStyle name="SAPBEXexcCritical5" xfId="618" xr:uid="{58CBC625-9106-4860-9487-71DC84CA9E5E}"/>
+    <cellStyle name="SAPBEXexcCritical6" xfId="619" xr:uid="{110E6A10-A868-4888-9FB6-62D646040D60}"/>
+    <cellStyle name="SAPBEXexcGood1" xfId="620" xr:uid="{73C1C44C-54E8-48D1-A988-C5DFAF3B5925}"/>
+    <cellStyle name="SAPBEXexcGood2" xfId="621" xr:uid="{388B99F1-94F3-4CFD-AF1F-29483345DB29}"/>
+    <cellStyle name="SAPBEXexcGood3" xfId="622" xr:uid="{D2FA66B9-4A62-4F6E-92AE-383DD93B5E4F}"/>
+    <cellStyle name="SAPBEXfilterDrill" xfId="623" xr:uid="{67EE1F68-E4AB-4ED8-8B5D-953C66FDF71A}"/>
+    <cellStyle name="SAPBEXfilterItem" xfId="624" xr:uid="{D27BEB25-FE50-4972-A5F2-E2F8AE06CC93}"/>
+    <cellStyle name="SAPBEXfilterText" xfId="625" xr:uid="{DE76DB5F-D327-4E4C-B076-A9079C958860}"/>
+    <cellStyle name="SAPBEXformats" xfId="626" xr:uid="{C00632FE-3979-4B39-B464-54B636D6AC02}"/>
+    <cellStyle name="SAPBEXheaderItem" xfId="627" xr:uid="{26168F1C-749B-4825-905D-1D05CAC22219}"/>
+    <cellStyle name="SAPBEXheaderText" xfId="628" xr:uid="{4ADF4205-7497-4BFB-BC8E-1D8AF5030D79}"/>
+    <cellStyle name="SAPBEXHLevel0" xfId="629" xr:uid="{68B76848-8FD6-4767-A03B-866176092C67}"/>
+    <cellStyle name="SAPBEXHLevel0X" xfId="630" xr:uid="{50C0B4D6-9D7C-4D4E-A12D-3D3C6DE887D4}"/>
+    <cellStyle name="SAPBEXHLevel1" xfId="631" xr:uid="{EE63610A-929C-4C0F-9C55-D31CF0C62711}"/>
+    <cellStyle name="SAPBEXHLevel1X" xfId="632" xr:uid="{481ACFCC-7886-4B1B-8D39-10540A9E0EEE}"/>
+    <cellStyle name="SAPBEXHLevel2" xfId="633" xr:uid="{A3E528CE-F88D-4203-A605-35CDBD091CF7}"/>
+    <cellStyle name="SAPBEXHLevel2X" xfId="634" xr:uid="{28EDC3F0-D71F-45CC-92B6-9D05CEEB6B41}"/>
+    <cellStyle name="SAPBEXHLevel3" xfId="635" xr:uid="{1B216F46-DFED-4434-887F-3EFC18F9E222}"/>
+    <cellStyle name="SAPBEXHLevel3X" xfId="636" xr:uid="{4FAB2701-C504-4966-8024-817CE835A16F}"/>
+    <cellStyle name="SAPBEXresData" xfId="637" xr:uid="{2708BEC1-42FB-453E-A8A7-D012A0C3F1F0}"/>
+    <cellStyle name="SAPBEXresDataEmph" xfId="638" xr:uid="{37483E9E-68E5-4706-9AFA-0DE73501513E}"/>
+    <cellStyle name="SAPBEXresItem" xfId="639" xr:uid="{09CC852D-8199-45E6-BB6B-E9B64D8772D2}"/>
+    <cellStyle name="SAPBEXresItemX" xfId="640" xr:uid="{52C6915F-61FC-4A8E-83B3-226A77C18845}"/>
+    <cellStyle name="SAPBEXstdData" xfId="641" xr:uid="{508C321A-5382-4E31-9A4D-18A976C2B4FF}"/>
+    <cellStyle name="SAPBEXstdDataEmph" xfId="642" xr:uid="{1561C5EC-D5A4-4C51-A525-93B47A5EF6A9}"/>
+    <cellStyle name="SAPBEXstdItem" xfId="643" xr:uid="{880B277B-D663-4A51-AD9F-D9119B9317CF}"/>
+    <cellStyle name="SAPBEXstdItemX" xfId="644" xr:uid="{318C7289-5BD9-486E-AB9C-75D7E5964BD1}"/>
+    <cellStyle name="SAPBEXtitle" xfId="645" xr:uid="{FA67E9D0-8E26-4ABD-AA4B-A047DDC2A4FB}"/>
+    <cellStyle name="SAPBEXundefined" xfId="646" xr:uid="{635A57FB-1B7A-4A48-B676-99ADD9E37C36}"/>
+    <cellStyle name="Schlecht 2" xfId="647" xr:uid="{787C9584-B0FC-42A4-9538-67295ED5E5D4}"/>
+    <cellStyle name="Shade" xfId="648" xr:uid="{02BB9C41-833D-458E-B2B0-90AB00AA9686}"/>
+    <cellStyle name="Standaard_Blad1" xfId="649" xr:uid="{DD5E2A39-4415-446E-A0B8-3E33A55B2771}"/>
+    <cellStyle name="Standard 10" xfId="650" xr:uid="{D0766C70-7A78-4003-B182-62FC8E408B37}"/>
+    <cellStyle name="Standard 11" xfId="651" xr:uid="{95057690-45C0-42B1-9B6D-6B7062059830}"/>
+    <cellStyle name="Standard 11 2" xfId="652" xr:uid="{9D4D0CA6-7CD9-4370-901E-31D5B89FAA11}"/>
+    <cellStyle name="Standard 11 3" xfId="653" xr:uid="{88CE2D03-E397-4C3B-BEE6-61FB6FBBCFF8}"/>
+    <cellStyle name="Standard 11 4" xfId="654" xr:uid="{37E1E181-8AB2-4F1D-AA32-823AB556510E}"/>
+    <cellStyle name="Standard 12" xfId="655" xr:uid="{5DF5A3BF-936C-4E1E-9CAE-3D15E42030B1}"/>
+    <cellStyle name="Standard 13" xfId="656" xr:uid="{692A03C6-490D-43FE-9D42-EFE7AC62F05B}"/>
+    <cellStyle name="Standard 2" xfId="657" xr:uid="{84FDA15F-E4EA-423C-A36A-A599E3BB77DB}"/>
+    <cellStyle name="Standard 2 2" xfId="658" xr:uid="{0A242869-5016-4FAC-B353-774097274EC4}"/>
+    <cellStyle name="Standard 2 3" xfId="659" xr:uid="{26717969-786F-45CE-B2F8-794E91B7017B}"/>
+    <cellStyle name="Standard 2 3 2" xfId="660" xr:uid="{0FE470EB-9749-4C2F-9E96-EA7886EE7245}"/>
+    <cellStyle name="Standard 2 3 3" xfId="661" xr:uid="{BAB6FF6F-4384-4E8A-8C04-A7CACC34015B}"/>
+    <cellStyle name="Standard 2 4" xfId="662" xr:uid="{15F86045-A28C-499E-8ED8-7142FCD713A1}"/>
+    <cellStyle name="Standard 2 4 2" xfId="663" xr:uid="{7AA80FA6-E96E-408A-91F3-D8F15F1D8968}"/>
+    <cellStyle name="Standard 2 4 3" xfId="664" xr:uid="{F949E400-D6CF-4B05-BCAE-2ACA1EA0B20D}"/>
+    <cellStyle name="Standard 2 5" xfId="665" xr:uid="{5F39E6B9-3A3E-4E10-BDCE-EC8B9D4C1203}"/>
+    <cellStyle name="Standard 3" xfId="666" xr:uid="{C917BDFB-0D2C-4B46-986D-D38F0A6CB96A}"/>
+    <cellStyle name="Standard 3 2" xfId="667" xr:uid="{4F6C0858-E67B-43F1-8C84-5E157007A224}"/>
+    <cellStyle name="Standard 4" xfId="668" xr:uid="{D46B6557-897C-44D7-BD39-540C74F7A540}"/>
+    <cellStyle name="Standard 4 2" xfId="669" xr:uid="{05AF88DD-013F-4961-BB08-ABA4A0CC6251}"/>
+    <cellStyle name="Standard 5" xfId="670" xr:uid="{A3CF4AAA-B685-4F79-A1B5-17D3D0C6F1A5}"/>
+    <cellStyle name="Standard 5 2" xfId="671" xr:uid="{8A0699AA-2737-4785-938B-C23AB82DC7D1}"/>
+    <cellStyle name="Standard 5 2 2" xfId="672" xr:uid="{2E1B6435-BCEA-45D1-BE4B-87213A8EE5D1}"/>
+    <cellStyle name="Standard 5 2 2 2" xfId="673" xr:uid="{EB317EA6-6888-45EC-AE4E-54161FA4B5AE}"/>
+    <cellStyle name="Standard 5 2 2 3" xfId="674" xr:uid="{88B7C218-50BE-49ED-9F99-9103C542C568}"/>
+    <cellStyle name="Standard 5 2 3" xfId="675" xr:uid="{495C601D-22EC-446E-93DB-89654B3610F6}"/>
+    <cellStyle name="Standard 5 2 3 2" xfId="676" xr:uid="{3EA1A995-C30D-48B9-8357-C5A55432532B}"/>
+    <cellStyle name="Standard 5 2 3 3" xfId="677" xr:uid="{301D0FD7-81BD-4B89-9F60-3C1652B236CC}"/>
+    <cellStyle name="Standard 5 2 4" xfId="678" xr:uid="{87D81CA7-0CC3-4C53-AC8E-6A0F13489768}"/>
+    <cellStyle name="Standard 5 2 5" xfId="679" xr:uid="{F7184384-06E4-4731-8B01-E016A737E7F5}"/>
+    <cellStyle name="Standard 5 2_ELC_Processes" xfId="680" xr:uid="{0FC123E9-EAB8-4954-9EC7-F6AE11DEC5F9}"/>
+    <cellStyle name="Standard 5 3" xfId="681" xr:uid="{B1C58778-DEAC-4AB0-97F4-6C974CB4AA47}"/>
+    <cellStyle name="Standard 5 3 2" xfId="682" xr:uid="{5F16F961-67EE-417F-8820-FC19D604C9C9}"/>
+    <cellStyle name="Standard 5 3 3" xfId="683" xr:uid="{A82B538D-0B0F-451F-9F98-843E648360D9}"/>
+    <cellStyle name="Standard 5 4" xfId="684" xr:uid="{528AF33C-68B0-48BD-8439-835BCEF73E33}"/>
+    <cellStyle name="Standard 5 4 2" xfId="685" xr:uid="{44626699-51D8-4FF6-88C0-C79DAA637BB6}"/>
+    <cellStyle name="Standard 5 4 3" xfId="686" xr:uid="{84B16CB0-77E9-4D6F-8FC0-EC9921D9C259}"/>
+    <cellStyle name="Standard 5 5" xfId="687" xr:uid="{C7BA268B-ECEF-439C-A9E4-FA74CEAA3738}"/>
+    <cellStyle name="Standard 5 5 2" xfId="688" xr:uid="{5D627EC0-F864-46B6-85DB-64E3CC7AA9DD}"/>
+    <cellStyle name="Standard 5 5 3" xfId="689" xr:uid="{AB2C34E3-E1FE-4FFC-8B0C-9E83E3E6A35D}"/>
+    <cellStyle name="Standard 5 6" xfId="690" xr:uid="{8C0E996A-E714-4C74-9155-51ECD45962E4}"/>
+    <cellStyle name="Standard 5 7" xfId="691" xr:uid="{F0D9933A-8767-4CB6-A8F1-50E3D68ACDD3}"/>
+    <cellStyle name="Standard 5_ELC_Processes" xfId="692" xr:uid="{743B768F-D9B4-4658-87A7-17B80D618264}"/>
+    <cellStyle name="Standard 6" xfId="693" xr:uid="{FC59FAA8-7E91-430E-BA53-65B674D153B7}"/>
+    <cellStyle name="Standard 6 2" xfId="694" xr:uid="{2BB4F9AB-EA7B-4A97-8A69-C43B98E83E25}"/>
+    <cellStyle name="Standard 7" xfId="695" xr:uid="{EFC9B530-D1E0-4FC5-95B3-8CE78B40A281}"/>
+    <cellStyle name="Standard 8" xfId="696" xr:uid="{9D913D24-32C3-42D1-8B73-68935C9BF952}"/>
+    <cellStyle name="Standard 8 2" xfId="697" xr:uid="{268ED492-9B3A-4096-9449-E377063307E7}"/>
+    <cellStyle name="Standard 8 3" xfId="698" xr:uid="{3339F8A8-E44F-425A-8A35-718C67A3C6B2}"/>
+    <cellStyle name="Standard 9" xfId="699" xr:uid="{7A17150C-95AE-4F21-8875-8D209329B16B}"/>
+    <cellStyle name="Standard 9 2" xfId="700" xr:uid="{AC718BFD-EC0C-4432-A0F1-9063262DDD4B}"/>
+    <cellStyle name="Standard 9 3" xfId="701" xr:uid="{FC760A61-04E7-4381-8640-F5925829EEC2}"/>
+    <cellStyle name="Standard_Results_Pan_EU_OLGA_NUC" xfId="702" xr:uid="{D1259566-487A-49A9-9B30-E3294D25883C}"/>
+    <cellStyle name="Style 21" xfId="703" xr:uid="{8C0100CE-14A5-469A-BABB-0B6AD2DFA2BC}"/>
+    <cellStyle name="Style 22" xfId="704" xr:uid="{60A09802-DFE1-45A1-AE81-5B0FC638D3B4}"/>
+    <cellStyle name="Style 23" xfId="705" xr:uid="{77389A86-231C-4B62-936A-CC9AB3ADD757}"/>
+    <cellStyle name="Style 24" xfId="706" xr:uid="{0EDA069D-AF63-4BBA-AE20-1308ACB164FF}"/>
+    <cellStyle name="Style 25" xfId="707" xr:uid="{8F941B62-7CF4-445E-83D1-546FFAFC82FA}"/>
+    <cellStyle name="Style 26" xfId="708" xr:uid="{741F1DB2-CBC9-4734-A04F-2E544491D98D}"/>
+    <cellStyle name="Style 27" xfId="709" xr:uid="{45D35423-8B5D-4FCB-9092-CF22C3132C50}"/>
+    <cellStyle name="Style 28" xfId="710" xr:uid="{06D2A7DC-F223-4203-9A76-8F4A47DD1EE0}"/>
+    <cellStyle name="Style 29" xfId="711" xr:uid="{5200DA83-3C3C-4E18-9B3D-5CED8E40BAB2}"/>
+    <cellStyle name="Style 30" xfId="712" xr:uid="{3BE87103-4283-4787-9431-A31C17178ED5}"/>
+    <cellStyle name="Style 31" xfId="713" xr:uid="{6F6C1B6C-996E-4568-965A-58FE80866984}"/>
+    <cellStyle name="Style 32" xfId="714" xr:uid="{A10F430E-921D-49E5-80FA-E03E12478DEE}"/>
+    <cellStyle name="Style 33" xfId="715" xr:uid="{C13AEFE7-8543-4640-8D92-3EB92C2FE97B}"/>
+    <cellStyle name="Style 34" xfId="716" xr:uid="{50C15AC5-3C69-4494-ADAC-95B3ED36D0DA}"/>
+    <cellStyle name="Style 35" xfId="717" xr:uid="{38394161-1DAC-404E-8321-1FF3178F2F07}"/>
+    <cellStyle name="Suma" xfId="296" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="Suma 10" xfId="718" xr:uid="{2247DD8C-0402-402D-96DE-44C4F8519394}"/>
+    <cellStyle name="Suma 2" xfId="297" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="Suma 3" xfId="298" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="Suma 4" xfId="299" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="Suma 5" xfId="300" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="Suma 6" xfId="301" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="Suma 7" xfId="302" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="Suma 8" xfId="303" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="Suma 9" xfId="719" xr:uid="{933AF004-5E15-40D2-AE27-77B20B615940}"/>
+    <cellStyle name="Tekst objaśnienia" xfId="304" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="Tekst objaśnienia 10" xfId="720" xr:uid="{50BE8A69-53C7-4CC3-A294-36E574A5AF43}"/>
+    <cellStyle name="Tekst objaśnienia 2" xfId="305" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="Tekst objaśnienia 3" xfId="306" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="Tekst objaśnienia 4" xfId="307" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="Tekst objaśnienia 5" xfId="308" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="Tekst objaśnienia 6" xfId="309" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="Tekst objaśnienia 7" xfId="310" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="Tekst objaśnienia 8" xfId="311" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="Tekst objaśnienia 9" xfId="721" xr:uid="{56C63A8D-62E5-454A-B4FE-48EEB948BFBA}"/>
+    <cellStyle name="Tekst ostrzeżenia" xfId="312" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 10" xfId="722" xr:uid="{84609FF5-54A4-478E-A7DC-8DC37DD02600}"/>
+    <cellStyle name="Tekst ostrzeżenia 2" xfId="313" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 3" xfId="314" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 4" xfId="315" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 5" xfId="316" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 6" xfId="317" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 7" xfId="318" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 8" xfId="319" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="Tekst ostrzeżenia 9" xfId="723" xr:uid="{267EE74F-FC5C-418F-982C-830DC30C1325}"/>
+    <cellStyle name="Title" xfId="724" xr:uid="{4919235A-3D0C-46AD-964F-C0915915E970}"/>
+    <cellStyle name="Total" xfId="725" xr:uid="{EE08CA5F-B384-4889-8AD5-4F56D2556649}"/>
+    <cellStyle name="Total 10" xfId="726" xr:uid="{0E9F23E4-9144-4482-BECE-2D4D1C16834C}"/>
+    <cellStyle name="Total 11" xfId="727" xr:uid="{95BCBA38-8921-43C6-95A9-81D3DF0D8AA5}"/>
+    <cellStyle name="Total 12" xfId="728" xr:uid="{F117F26E-E6C1-4A33-A938-BAEDBC904F24}"/>
+    <cellStyle name="Total 13" xfId="729" xr:uid="{6B49210D-C75A-4090-9C7E-3000F12337F2}"/>
+    <cellStyle name="Total 14" xfId="730" xr:uid="{3D426B12-F906-4470-BD77-B93DF75007F2}"/>
+    <cellStyle name="Total 15" xfId="731" xr:uid="{AAC2435C-8097-4AF8-848F-16FC8B37834F}"/>
+    <cellStyle name="Total 16" xfId="732" xr:uid="{820D745E-442B-41B8-BF48-E49E2B91FDC0}"/>
+    <cellStyle name="Total 17" xfId="733" xr:uid="{6E5F563F-82C7-4A16-ACE4-46F533575485}"/>
+    <cellStyle name="Total 18" xfId="734" xr:uid="{DD9C9C47-B6CE-44F1-8F55-32A8B4F094C5}"/>
+    <cellStyle name="Total 19" xfId="735" xr:uid="{69FB3A76-417B-4999-B853-D143F2CF9A4F}"/>
+    <cellStyle name="Total 2" xfId="736" xr:uid="{26CEE047-316C-440B-B64A-B35CC4090937}"/>
+    <cellStyle name="Total 3" xfId="737" xr:uid="{099A18B5-285B-4470-A063-988D09B3DD9C}"/>
+    <cellStyle name="Total 4" xfId="738" xr:uid="{E3211880-B4C9-49B8-9B16-03FC9960BD25}"/>
+    <cellStyle name="Total 5" xfId="739" xr:uid="{6E56FC74-4E29-4E65-860A-50379436EA26}"/>
+    <cellStyle name="Total 6" xfId="740" xr:uid="{9DA186E6-A764-4F0E-AAA6-FBC29D3F17BA}"/>
+    <cellStyle name="Total 7" xfId="741" xr:uid="{43F2862B-BE71-41D2-B427-656D6A0B17B8}"/>
+    <cellStyle name="Total 8" xfId="742" xr:uid="{C89C527F-337C-4E0B-AEA6-455377E6FDBD}"/>
+    <cellStyle name="Total 9" xfId="743" xr:uid="{E7960363-C6E9-4627-8256-9B7C2FC8DF0B}"/>
+    <cellStyle name="Tytuł" xfId="320" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="Tytuł 2" xfId="744" xr:uid="{889631A4-EBA1-4293-8FB4-1B392F2AAF36}"/>
+    <cellStyle name="Tytuł 3" xfId="745" xr:uid="{435CB788-2295-4B04-B051-2723AFCBAA1F}"/>
+    <cellStyle name="Überschrift 1 2" xfId="746" xr:uid="{B137AA32-E5F3-4682-B46D-161239FE5EA8}"/>
+    <cellStyle name="Überschrift 2 2" xfId="747" xr:uid="{4839AB4E-BD34-43E4-B506-10332AC8AB9A}"/>
+    <cellStyle name="Überschrift 3 2" xfId="748" xr:uid="{591AABCA-0347-4BC5-AAD0-C7CDAE707B1B}"/>
+    <cellStyle name="Überschrift 4 2" xfId="749" xr:uid="{91C6E673-7ED7-496C-8871-C1455A4A6C49}"/>
+    <cellStyle name="Überschrift 5" xfId="750" xr:uid="{7C39F985-631D-42ED-8EFB-D1910CC9FA3D}"/>
+    <cellStyle name="Unprot" xfId="751" xr:uid="{6D59D09B-4269-42B1-93A2-66D7AA9E5948}"/>
+    <cellStyle name="Unprot$" xfId="752" xr:uid="{23412C60-3102-47A4-B629-460F1A9D8C43}"/>
+    <cellStyle name="Unprot_2010-09-24_LTP 2010_assumptions" xfId="753" xr:uid="{D64E78FE-CFDA-4DC8-954E-92083486298E}"/>
+    <cellStyle name="Unprotect" xfId="754" xr:uid="{3815F5EC-03C4-4D5A-A207-9372156639B4}"/>
+    <cellStyle name="Uwaga" xfId="321" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="Uwaga 10" xfId="755" xr:uid="{50F12990-34C1-4C76-9E5A-CF6D71EC71D8}"/>
+    <cellStyle name="Uwaga 2" xfId="322" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="Uwaga 3" xfId="323" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="Uwaga 4" xfId="324" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="Uwaga 5" xfId="325" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="Uwaga 6" xfId="326" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="Uwaga 7" xfId="327" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="Uwaga 8" xfId="328" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="Uwaga 9" xfId="756" xr:uid="{B6B183D2-E20E-47B0-BF45-4434C83F92B1}"/>
+    <cellStyle name="Verknüpfte Zelle 2" xfId="757" xr:uid="{F369DE97-177A-4C13-8DB6-5E183C08B7DC}"/>
+    <cellStyle name="Währung 2" xfId="758" xr:uid="{2D90021E-E9D2-4873-993A-779147C16077}"/>
+    <cellStyle name="Währung 2 2" xfId="759" xr:uid="{21B587DD-23FE-4234-A206-192042117EB0}"/>
+    <cellStyle name="Warnender Text 2" xfId="760" xr:uid="{C376A303-E93B-42BB-80D5-B75306FFAA44}"/>
+    <cellStyle name="Warning Text" xfId="761" xr:uid="{B9725069-846A-4D5F-B860-EAC09AF652F9}"/>
+    <cellStyle name="X10_Figs 21 dec" xfId="762" xr:uid="{B79F08EA-7629-404E-9342-494B96670C3C}"/>
+    <cellStyle name="Zelle überprüfen 2" xfId="763" xr:uid="{8C3C0FCF-02CA-48D0-8DD1-8BE322D6FCD0}"/>
+    <cellStyle name="Złe" xfId="329" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="Złe 10" xfId="764" xr:uid="{6C9A641C-3E75-4C5E-A6CC-326FABC7C25E}"/>
+    <cellStyle name="Złe 2" xfId="330" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="Złe 3" xfId="331" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="Złe 4" xfId="332" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="Złe 5" xfId="333" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="Złe 6" xfId="334" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="Złe 7" xfId="335" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="Złe 8" xfId="336" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="Złe 9" xfId="765" xr:uid="{04102CE9-8577-4A17-AC4C-0E25D4540F84}"/>
+    <cellStyle name="Обычный_2++_CRFReport-template" xfId="766" xr:uid="{6FA07EC8-238F-4849-9FA4-C89362398884}"/>
+    <cellStyle name="已访问的超链接" xfId="337" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4105,8 +5693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4812,7 +6400,7 @@
       <c r="F13" s="22"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="33" type="noConversion"/>
+  <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -5238,10 +6826,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31854235-9EEE-44B2-8649-8E7FE48F8F70}">
-  <dimension ref="B2:K19"/>
+  <dimension ref="B2:K33"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5434,6 +7022,125 @@
       <c r="C19" s="117"/>
       <c r="D19" s="117"/>
       <c r="E19" s="118"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="108" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="26.25" thickBot="1">
+      <c r="B25" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="139"/>
+      <c r="D25" s="139"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="111" t="str">
+        <f>$B$18</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C26" s="112" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="147">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="145" t="str">
+        <f t="shared" ref="B27:B33" si="0">$B$18</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C27" s="144" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="143">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="142" t="str">
+        <f t="shared" si="0"/>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C28" s="141" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="140">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="145" t="str">
+        <f t="shared" si="0"/>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C29" s="144" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="143">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="142" t="str">
+        <f t="shared" si="0"/>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C30" s="141" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="140">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="145" t="str">
+        <f t="shared" si="0"/>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C31" s="144" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" s="143">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="111" t="str">
+        <f>$B$18</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C32" s="112" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="147">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="13.5" thickBot="1">
+      <c r="B33" s="116" t="str">
+        <f t="shared" si="0"/>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="C33" s="117" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="146">
+        <v>0.1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5559,21 +7266,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="56d16bfd38a93d3246b87ec2f908dfef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7776de10091f04de0bec4c5ba2ee03" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -5717,24 +7409,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41AB35AE-AE16-422C-95C7-3A91F3841299}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5750,4 +7440,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Wyrwa\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6578B301-0E68-45BD-9B40-48BF2417BEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D264788D-6EB0-4870-BE69-7211F1B8B546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="155">
   <si>
     <t>Define commodities</t>
   </si>
@@ -1278,36 +1278,6 @@
   </si>
   <si>
     <t>WEEKLY</t>
-  </si>
-  <si>
-    <t>1S1W1D</t>
-  </si>
-  <si>
-    <t>1S1W2D</t>
-  </si>
-  <si>
-    <t>1S2W1D</t>
-  </si>
-  <si>
-    <t>1S2W2D</t>
-  </si>
-  <si>
-    <t>2S1W1D</t>
-  </si>
-  <si>
-    <t>2S1W2D</t>
-  </si>
-  <si>
-    <t>2S2W1D</t>
-  </si>
-  <si>
-    <t>2S2W2D</t>
-  </si>
-  <si>
-    <t>TimeSlice</t>
-  </si>
-  <si>
-    <t>COM_FR</t>
   </si>
 </sst>
 </file>
@@ -1321,22 +1291,22 @@
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="173" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="174" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="_-* #,##0.00\ _D_M_-;\-* #,##0.00\ _D_M_-;_-* &quot;-&quot;??\ _D_M_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;DM&quot;;[Red]\-#,##0.00\ &quot;DM&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00\ &quot;Pts&quot;;[Red]\-#,##0.00\ &quot;Pts&quot;"/>
-    <numFmt numFmtId="180" formatCode="#,##0."/>
-    <numFmt numFmtId="181" formatCode="&quot;$&quot;#."/>
-    <numFmt numFmtId="182" formatCode="m/d/yy\ h:mm"/>
-    <numFmt numFmtId="183" formatCode="#.00"/>
-    <numFmt numFmtId="184" formatCode="mmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="185" formatCode="mmm\-yyyy"/>
-    <numFmt numFmtId="186" formatCode="yyyy"/>
-    <numFmt numFmtId="187" formatCode="_-* ###0.00_-;\(###0.00\);_-* &quot;–&quot;_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0.00\ _D_M_-;\-* #,##0.00\ _D_M_-;_-* &quot;-&quot;??\ _D_M_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
+    <numFmt numFmtId="174" formatCode="#,##0.00\ &quot;DM&quot;;[Red]\-#,##0.00\ &quot;DM&quot;"/>
+    <numFmt numFmtId="175" formatCode="#,##0.00\ &quot;Pts&quot;;[Red]\-#,##0.00\ &quot;Pts&quot;"/>
+    <numFmt numFmtId="176" formatCode="#,##0."/>
+    <numFmt numFmtId="177" formatCode="&quot;$&quot;#."/>
+    <numFmt numFmtId="178" formatCode="m/d/yy\ h:mm"/>
+    <numFmt numFmtId="179" formatCode="#.00"/>
+    <numFmt numFmtId="180" formatCode="mmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="181" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="182" formatCode="yyyy"/>
+    <numFmt numFmtId="183" formatCode="_-* ###0.00_-;\(###0.00\);_-* &quot;–&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="94">
     <font>
@@ -3044,7 +3014,7 @@
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="6" fillId="37" borderId="28">
+    <xf numFmtId="175" fontId="6" fillId="37" borderId="28">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3071,15 +3041,15 @@
     <xf numFmtId="0" fontId="19" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="69" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="69" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="69" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="69" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="181" fontId="69" fillId="0" borderId="0">
+    <xf numFmtId="177" fontId="69" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -3089,24 +3059,24 @@
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="69" fillId="0" borderId="0">
+    <xf numFmtId="179" fontId="69" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0"/>
@@ -3267,7 +3237,7 @@
     </xf>
     <xf numFmtId="40" fontId="68" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -3530,13 +3500,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -3548,7 +3518,7 @@
     <xf numFmtId="17" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="85" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -3636,11 +3606,11 @@
     <xf numFmtId="0" fontId="6" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="68" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="68" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="187" fontId="87" fillId="0" borderId="0">
+    <xf numFmtId="183" fontId="87" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -3648,7 +3618,7 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="4" fontId="66" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="277"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="277" applyFont="1"/>
@@ -4028,6 +3998,18 @@
     <xf numFmtId="1" fontId="0" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="60" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4039,33 +4021,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="767">
@@ -5378,7 +5333,7 @@
       <c r="H3" s="64"/>
       <c r="I3" s="64"/>
       <c r="J3" s="65"/>
-      <c r="K3" s="136" t="s">
+      <c r="K3" s="140" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5395,7 +5350,7 @@
       <c r="H4" s="68"/>
       <c r="I4" s="68"/>
       <c r="J4" s="69"/>
-      <c r="K4" s="136"/>
+      <c r="K4" s="140"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="66"/>
@@ -5424,7 +5379,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="69"/>
-      <c r="K5" s="136"/>
+      <c r="K5" s="140"/>
     </row>
     <row r="6" spans="1:11" ht="31.7" customHeight="1" thickBot="1">
       <c r="A6" s="66"/>
@@ -5453,7 +5408,7 @@
         <v>17</v>
       </c>
       <c r="J6" s="69"/>
-      <c r="K6" s="136"/>
+      <c r="K6" s="140"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="66"/>
@@ -5476,7 +5431,7 @@
       <c r="H7" s="73"/>
       <c r="I7" s="73"/>
       <c r="J7" s="69"/>
-      <c r="K7" s="136"/>
+      <c r="K7" s="140"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="66"/>
@@ -5499,7 +5454,7 @@
       <c r="H8" s="77"/>
       <c r="I8" s="77"/>
       <c r="J8" s="69"/>
-      <c r="K8" s="136"/>
+      <c r="K8" s="140"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="66"/>
@@ -5522,7 +5477,7 @@
       <c r="H9" s="73"/>
       <c r="I9" s="73"/>
       <c r="J9" s="69"/>
-      <c r="K9" s="136"/>
+      <c r="K9" s="140"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="66"/>
@@ -5545,7 +5500,7 @@
       <c r="H10" s="77"/>
       <c r="I10" s="77"/>
       <c r="J10" s="69"/>
-      <c r="K10" s="136"/>
+      <c r="K10" s="140"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="66"/>
@@ -5568,7 +5523,7 @@
       <c r="H11" s="73"/>
       <c r="I11" s="73"/>
       <c r="J11" s="69"/>
-      <c r="K11" s="136"/>
+      <c r="K11" s="140"/>
     </row>
     <row r="12" spans="1:11" ht="13.5" thickBot="1">
       <c r="A12" s="84"/>
@@ -5591,7 +5546,7 @@
       <c r="H12" s="77"/>
       <c r="I12" s="77"/>
       <c r="J12" s="86"/>
-      <c r="K12" s="136"/>
+      <c r="K12" s="140"/>
     </row>
     <row r="13" spans="1:11" ht="13.5" thickBot="1">
       <c r="A13" s="66"/>
@@ -5631,10 +5586,10 @@
     </row>
     <row r="17" spans="2:3" ht="15.75" customHeight="1"/>
     <row r="18" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B18" s="135" t="s">
+      <c r="B18" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="135"/>
+      <c r="C18" s="139"/>
     </row>
     <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="87" t="s">
@@ -6829,7 +6784,7 @@
   <dimension ref="B2:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -6996,11 +6951,11 @@
       <c r="B17" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="137" t="s">
+      <c r="C17" s="141" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="141"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="111" t="str">
@@ -7024,123 +6979,57 @@
       <c r="E19" s="118"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="108" t="s">
-        <v>117</v>
-      </c>
+      <c r="B23" s="108"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="D24" s="54" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="26.25" thickBot="1">
-      <c r="B25" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="139"/>
-      <c r="D25" s="139"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="54"/>
+    </row>
+    <row r="25" spans="2:7" ht="13.5" thickBot="1">
+      <c r="B25" s="24"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="135"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="111" t="str">
-        <f>$B$18</f>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="C26" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" s="147">
-        <v>0.15</v>
-      </c>
+      <c r="B26" s="111"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="136"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="145" t="str">
-        <f t="shared" ref="B27:B33" si="0">$B$18</f>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="C27" s="144" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27" s="143">
-        <v>0.1</v>
-      </c>
+      <c r="B27" s="122"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="137"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="142" t="str">
-        <f t="shared" si="0"/>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="C28" s="141" t="s">
-        <v>157</v>
-      </c>
-      <c r="D28" s="140">
-        <v>0.15</v>
-      </c>
+      <c r="B28" s="111"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="136"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="145" t="str">
-        <f t="shared" si="0"/>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="C29" s="144" t="s">
-        <v>158</v>
-      </c>
-      <c r="D29" s="143">
-        <v>0.1</v>
-      </c>
+      <c r="B29" s="122"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="137"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="142" t="str">
-        <f t="shared" si="0"/>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="C30" s="141" t="s">
-        <v>159</v>
-      </c>
-      <c r="D30" s="140">
-        <v>0.15</v>
-      </c>
+      <c r="B30" s="111"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="136"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="145" t="str">
-        <f t="shared" si="0"/>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="C31" s="144" t="s">
-        <v>160</v>
-      </c>
-      <c r="D31" s="143">
-        <v>0.1</v>
-      </c>
+      <c r="B31" s="122"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="137"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="111" t="str">
-        <f>$B$18</f>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="C32" s="112" t="s">
-        <v>161</v>
-      </c>
-      <c r="D32" s="147">
-        <v>0.15</v>
-      </c>
+      <c r="B32" s="111"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="136"/>
     </row>
     <row r="33" spans="2:4" ht="13.5" thickBot="1">
-      <c r="B33" s="116" t="str">
-        <f t="shared" si="0"/>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="C33" s="117" t="s">
-        <v>162</v>
-      </c>
-      <c r="D33" s="146">
-        <v>0.1</v>
-      </c>
+      <c r="B33" s="116"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7216,11 +7105,11 @@
       <c r="C6" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="142" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="39"/>
@@ -7266,6 +7155,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="56d16bfd38a93d3246b87ec2f908dfef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7776de10091f04de0bec4c5ba2ee03" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -7409,22 +7313,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41AB35AE-AE16-422C-95C7-3A91F3841299}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7440,21 +7346,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Wyrwa\2023.12.06 - Very Simple Times Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D264788D-6EB0-4870-BE69-7211F1B8B546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCF7E14-0755-4909-9A56-81DAB5CE24AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6784,7 +6784,7 @@
   <dimension ref="B2:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -6963,13 +6963,19 @@
         <v>ELEC_HV</v>
       </c>
       <c r="C18" s="112">
-        <v>330</v>
-      </c>
-      <c r="D18" s="112"/>
-      <c r="E18" s="113"/>
+        <v>200</v>
+      </c>
+      <c r="D18" s="112">
+        <f>C18*1.1</f>
+        <v>220.00000000000003</v>
+      </c>
+      <c r="E18" s="112">
+        <f>D18*1.1</f>
+        <v>242.00000000000006</v>
+      </c>
       <c r="G18" s="58">
         <f>+C18/PP!G8</f>
-        <v>1100</v>
+        <v>666.66666666666674</v>
       </c>
     </row>
     <row r="19" spans="2:7">
@@ -7155,21 +7161,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="56d16bfd38a93d3246b87ec2f908dfef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7776de10091f04de0bec4c5ba2ee03" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -7313,24 +7304,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41AB35AE-AE16-422C-95C7-3A91F3841299}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7346,4 +7335,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>